--- a/data/Карта таблиц.xlsx
+++ b/data/Карта таблиц.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="811"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="811"/>
   </bookViews>
   <sheets>
     <sheet name="basic_estimate" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="160">
   <si>
     <t>Поле</t>
   </si>
@@ -125,15 +125,6 @@
     <t>Год сметы к которому привязана строка сметы контракта. (2014, 2015,2021, 2022)</t>
   </si>
   <si>
-    <t>notes_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id Примечания к строке </t>
-  </si>
-  <si>
-    <t>mini_header</t>
-  </si>
-  <si>
     <t>bool</t>
   </si>
   <si>
@@ -219,9 +210,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>Косвенно - A, если number_in_order INT()</t>
   </si>
   <si>
     <t>F</t>
@@ -443,11 +431,6 @@
   </si>
   <si>
     <t>Порядковый, индивидуальный номер строки</t>
-  </si>
-  <si>
-    <t>Является ли строка заголовком
-Если строка является заголовком, то NULL,
-Если нет, то указывается порядковый номер после заголовка</t>
   </si>
   <si>
     <t>Название раздела</t>
@@ -561,6 +544,18 @@
       </rPr>
       <t>\\srv-fs-02.stroy.local\Shares\Консерватория\21. Строительный контроль\Проверка ИД\2023\Замечания по ИД 001.23.docx</t>
     </r>
+  </si>
+  <si>
+    <t>first_notes_id</t>
+  </si>
+  <si>
+    <t>second_notes_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id Второе примечание к строке </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id Первого примечание к строке </t>
   </si>
 </sst>
 </file>
@@ -1031,8 +1026,8 @@
   </sheetPr>
   <dimension ref="A2:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,7 +1045,7 @@
   <sheetData>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -1081,13 +1076,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1107,7 +1102,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -1137,10 +1132,10 @@
         <v>17</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>13</v>
@@ -1151,7 +1146,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>13</v>
@@ -1166,7 +1161,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
@@ -1194,10 +1189,10 @@
         <v>21</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>13</v>
@@ -1224,7 +1219,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
@@ -1233,7 +1228,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>4</v>
@@ -1248,13 +1243,13 @@
         <v>18</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>13</v>
@@ -1280,7 +1275,7 @@
         <v>23</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
@@ -1289,7 +1284,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>10</v>
@@ -1304,51 +1299,53 @@
         <v>18</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="C13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9" t="s">
+      <c r="F13" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>13</v>
@@ -1360,7 +1357,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>13</v>
@@ -1372,7 +1369,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>10</v>
@@ -1387,13 +1384,13 @@
         <v>19</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>13</v>
@@ -1401,7 +1398,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>10</v>
@@ -1416,13 +1413,13 @@
         <v>18</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>13</v>
@@ -1430,7 +1427,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>10</v>
@@ -1445,13 +1442,13 @@
         <v>18</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>13</v>
@@ -1459,10 +1456,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>13</v>
@@ -1474,10 +1471,10 @@
         <v>18</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
@@ -1486,10 +1483,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>13</v>
@@ -1501,10 +1498,10 @@
         <v>18</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
@@ -1513,10 +1510,10 @@
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>13</v>
@@ -1528,7 +1525,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>13</v>
@@ -1540,10 +1537,10 @@
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>13</v>
@@ -1555,7 +1552,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>13</v>
@@ -1567,7 +1564,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>10</v>
@@ -1582,11 +1579,11 @@
         <v>18</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I22" s="9"/>
     </row>
@@ -1866,6 +1863,7 @@
     <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1895,7 +1893,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -1925,13 +1923,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1951,7 +1949,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -1965,10 +1963,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>13</v>
@@ -1980,7 +1978,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>13</v>
@@ -1994,10 +1992,10 @@
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>13</v>
@@ -2009,7 +2007,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>13</v>
@@ -2331,7 +2329,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -2361,13 +2359,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2387,7 +2385,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -2401,10 +2399,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>13</v>
@@ -2416,7 +2414,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>13</v>
@@ -2430,10 +2428,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>13</v>
@@ -2445,13 +2443,13 @@
         <v>19</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>13</v>
@@ -2459,10 +2457,10 @@
     </row>
     <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>13</v>
@@ -2474,7 +2472,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>13</v>
@@ -2488,7 +2486,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>10</v>
@@ -2503,13 +2501,13 @@
         <v>19</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>13</v>
@@ -2766,7 +2764,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -2796,13 +2794,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2822,7 +2820,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -2836,7 +2834,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>10</v>
@@ -2851,13 +2849,13 @@
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>13</v>
@@ -2865,10 +2863,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>13</v>
@@ -2880,7 +2878,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>13</v>
@@ -2894,10 +2892,10 @@
     </row>
     <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>13</v>
@@ -2909,7 +2907,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>13</v>
@@ -3187,7 +3185,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -3217,13 +3215,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3243,7 +3241,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>13</v>
@@ -3252,15 +3250,15 @@
         <v>13</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>13</v>
@@ -3272,10 +3270,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>13</v>
@@ -3286,10 +3284,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>13</v>
@@ -3301,7 +3299,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>13</v>
@@ -3617,7 +3615,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -3647,13 +3645,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3673,22 +3671,22 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>13</v>
@@ -3700,10 +3698,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
@@ -3712,7 +3710,7 @@
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>10</v>
@@ -3727,10 +3725,10 @@
         <v>19</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
@@ -4011,7 +4009,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -4041,13 +4039,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4067,22 +4065,22 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>13</v>
@@ -4094,10 +4092,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
@@ -4168,7 +4166,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -4199,13 +4197,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4225,22 +4223,22 @@
         <v>19</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>13</v>
@@ -4252,10 +4250,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -4564,7 +4562,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -4594,13 +4592,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4620,22 +4618,22 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>13</v>
@@ -4647,10 +4645,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -4959,7 +4957,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -4989,13 +4987,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5015,22 +5013,22 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>13</v>
@@ -5042,10 +5040,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -5344,7 +5342,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -5374,13 +5372,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5400,19 +5398,19 @@
         <v>19</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>10</v>
@@ -5427,13 +5425,13 @@
         <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>13</v>
@@ -5441,7 +5439,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>10</v>
@@ -5456,19 +5454,19 @@
         <v>19</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>10</v>
@@ -5483,22 +5481,22 @@
         <v>19</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>13</v>
@@ -5510,7 +5508,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>13</v>
@@ -5522,10 +5520,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>13</v>
@@ -5537,7 +5535,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>13</v>
@@ -5547,10 +5545,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>13</v>
@@ -5562,7 +5560,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>13</v>
@@ -5572,10 +5570,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>13</v>
@@ -5587,7 +5585,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>13</v>
@@ -5654,10 +5652,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>13</v>
@@ -5669,7 +5667,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>13</v>
@@ -5974,7 +5972,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -6004,13 +6002,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6030,7 +6028,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -6044,10 +6042,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>13</v>
@@ -6059,7 +6057,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>13</v>
@@ -6073,10 +6071,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>13</v>
@@ -6088,7 +6086,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>13</v>
@@ -6103,10 +6101,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>13</v>
@@ -6118,7 +6116,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>13</v>
@@ -6133,7 +6131,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>16</v>
@@ -6148,7 +6146,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>13</v>
@@ -6163,10 +6161,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>13</v>
@@ -6178,7 +6176,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>13</v>
@@ -6193,10 +6191,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>13</v>
@@ -6208,7 +6206,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>13</v>
@@ -6223,10 +6221,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>13</v>
@@ -6238,7 +6236,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>13</v>
@@ -6252,7 +6250,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>10</v>
@@ -6267,13 +6265,13 @@
         <v>19</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>13</v>

--- a/data/Карта таблиц.xlsx
+++ b/data/Карта таблиц.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="811"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="811"/>
   </bookViews>
   <sheets>
     <sheet name="basic_estimate" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>NOT</t>
   </si>
   <si>
-    <t>Номер по порядку в смете контракта</t>
-  </si>
-  <si>
     <t>id номера сметы к которому привязана строчка сметы</t>
   </si>
   <si>
@@ -556,6 +553,9 @@
   </si>
   <si>
     <t xml:space="preserve">id Первого примечание к строке </t>
+  </si>
+  <si>
+    <t>Номер по порядку в смете контракта в формате JSON</t>
   </si>
 </sst>
 </file>
@@ -1026,8 +1026,8 @@
   </sheetPr>
   <dimension ref="A2:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,7 +1045,7 @@
   <sheetData>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -1076,13 +1076,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1102,7 +1102,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -1132,21 +1132,21 @@
         <v>17</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>13</v>
@@ -1158,10 +1158,10 @@
         <v>18</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
@@ -1186,13 +1186,13 @@
         <v>18</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>13</v>
@@ -1216,10 +1216,10 @@
         <v>18</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
@@ -1228,7 +1228,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>4</v>
@@ -1243,13 +1243,13 @@
         <v>18</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>13</v>
@@ -1272,10 +1272,10 @@
         <v>19</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
@@ -1284,7 +1284,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>10</v>
@@ -1299,13 +1299,13 @@
         <v>18</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>13</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>10</v>
@@ -1328,13 +1328,13 @@
         <v>18</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>13</v>
@@ -1342,10 +1342,10 @@
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>13</v>
@@ -1357,7 +1357,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>13</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>10</v>
@@ -1384,13 +1384,13 @@
         <v>19</v>
       </c>
       <c r="F15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>13</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>10</v>
@@ -1413,13 +1413,13 @@
         <v>18</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>13</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>10</v>
@@ -1442,13 +1442,13 @@
         <v>18</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>13</v>
@@ -1456,10 +1456,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>13</v>
@@ -1471,10 +1471,10 @@
         <v>18</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
@@ -1483,10 +1483,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>13</v>
@@ -1498,10 +1498,10 @@
         <v>18</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
@@ -1510,10 +1510,10 @@
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>13</v>
@@ -1525,7 +1525,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>13</v>
@@ -1537,10 +1537,10 @@
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>13</v>
@@ -1552,7 +1552,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>13</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>10</v>
@@ -1579,11 +1579,11 @@
         <v>18</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I22" s="9"/>
     </row>
@@ -1893,7 +1893,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -1923,13 +1923,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1949,7 +1949,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -1963,10 +1963,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>13</v>
@@ -1978,7 +1978,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>13</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>13</v>
@@ -2007,7 +2007,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>13</v>
@@ -2329,7 +2329,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -2359,13 +2359,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2385,7 +2385,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>13</v>
@@ -2414,7 +2414,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>13</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>13</v>
@@ -2443,13 +2443,13 @@
         <v>19</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>13</v>
@@ -2457,10 +2457,10 @@
     </row>
     <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>13</v>
@@ -2472,7 +2472,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>13</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>10</v>
@@ -2501,13 +2501,13 @@
         <v>19</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>13</v>
@@ -2764,7 +2764,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -2794,13 +2794,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2820,7 +2820,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -2834,7 +2834,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>10</v>
@@ -2849,13 +2849,13 @@
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>150</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>13</v>
@@ -2863,10 +2863,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>13</v>
@@ -2878,7 +2878,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>13</v>
@@ -2892,10 +2892,10 @@
     </row>
     <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>13</v>
@@ -2907,7 +2907,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>13</v>
@@ -3185,7 +3185,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -3215,13 +3215,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3241,7 +3241,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>13</v>
@@ -3250,15 +3250,15 @@
         <v>13</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>13</v>
@@ -3270,10 +3270,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>13</v>
@@ -3284,10 +3284,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>80</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>13</v>
@@ -3299,7 +3299,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>13</v>
@@ -3615,7 +3615,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -3645,13 +3645,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3671,22 +3671,22 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>13</v>
@@ -3698,10 +3698,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
@@ -3710,7 +3710,7 @@
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>10</v>
@@ -3725,10 +3725,10 @@
         <v>19</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
@@ -4009,7 +4009,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -4039,13 +4039,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4065,22 +4065,22 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>13</v>
@@ -4092,10 +4092,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
@@ -4166,7 +4166,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -4197,13 +4197,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4223,22 +4223,22 @@
         <v>19</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>13</v>
@@ -4250,10 +4250,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -4562,7 +4562,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -4592,13 +4592,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4618,22 +4618,22 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>72</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>13</v>
@@ -4645,10 +4645,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -4957,7 +4957,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -4987,13 +4987,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5013,22 +5013,22 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>76</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>13</v>
@@ -5040,10 +5040,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -5342,7 +5342,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -5372,13 +5372,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5398,19 +5398,19 @@
         <v>19</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>10</v>
@@ -5425,13 +5425,13 @@
         <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>13</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>10</v>
@@ -5454,19 +5454,19 @@
         <v>19</v>
       </c>
       <c r="F7" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>140</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>141</v>
       </c>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>10</v>
@@ -5481,22 +5481,22 @@
         <v>19</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>13</v>
@@ -5508,7 +5508,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>13</v>
@@ -5520,10 +5520,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>13</v>
@@ -5535,7 +5535,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>13</v>
@@ -5545,10 +5545,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>13</v>
@@ -5560,7 +5560,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>13</v>
@@ -5570,10 +5570,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>13</v>
@@ -5585,7 +5585,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>13</v>
@@ -5652,10 +5652,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>76</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>13</v>
@@ -5667,7 +5667,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>13</v>
@@ -5972,7 +5972,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -6002,13 +6002,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6028,7 +6028,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -6042,10 +6042,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>13</v>
@@ -6057,7 +6057,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>13</v>
@@ -6071,10 +6071,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>13</v>
@@ -6086,7 +6086,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>13</v>
@@ -6101,10 +6101,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>13</v>
@@ -6116,7 +6116,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>13</v>
@@ -6131,7 +6131,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>16</v>
@@ -6146,7 +6146,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>13</v>
@@ -6161,10 +6161,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>13</v>
@@ -6176,7 +6176,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>13</v>
@@ -6191,10 +6191,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>13</v>
@@ -6206,7 +6206,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>13</v>
@@ -6221,10 +6221,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>105</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>106</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>13</v>
@@ -6236,7 +6236,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>13</v>
@@ -6250,7 +6250,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>10</v>
@@ -6265,13 +6265,13 @@
         <v>19</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>13</v>

--- a/data/Карта таблиц.xlsx
+++ b/data/Карта таблиц.xlsx
@@ -26,7 +26,7 @@
     <sheet name="critical_remarks" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">basic_estimate!$A$4:$I$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">basic_estimate!$A$4:$I$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="158">
   <si>
     <t>Поле</t>
   </si>
@@ -155,12 +155,6 @@
     <t>Ссылка из другой таблицы</t>
   </si>
   <si>
-    <t>unit_of_measurement -&gt; id</t>
-  </si>
-  <si>
-    <t>uom</t>
-  </si>
-  <si>
     <t>id Единицы измерения</t>
   </si>
   <si>
@@ -543,19 +537,19 @@
     </r>
   </si>
   <si>
-    <t>first_notes_id</t>
-  </si>
-  <si>
-    <t>second_notes_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id Второе примечание к строке </t>
-  </si>
-  <si>
-    <t xml:space="preserve">id Первого примечание к строке </t>
-  </si>
-  <si>
     <t>Номер по порядку в смете контракта в формате JSON</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Примечания в формате JSON</t>
+  </si>
+  <si>
+    <t>dimension</t>
+  </si>
+  <si>
+    <t>dimension -&gt; id</t>
   </si>
 </sst>
 </file>
@@ -1024,10 +1018,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A2:M49"/>
+  <dimension ref="A2:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,7 +1039,7 @@
   <sheetData>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -1076,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
@@ -1086,29 +1080,29 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
+      <c r="F5" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1132,7 +1126,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>29</v>
@@ -1142,29 +1136,29 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="B7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
+      <c r="F7" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="29"/>
@@ -1189,7 +1183,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>28</v>
@@ -1200,35 +1194,35 @@
       <c r="M8" s="30"/>
     </row>
     <row r="9" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9" t="s">
+      <c r="G9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>4</v>
@@ -1243,51 +1237,51 @@
         <v>18</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="C11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9" t="s">
+      <c r="G11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>13</v>
@@ -1299,10 +1293,10 @@
         <v>18</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>27</v>
@@ -1311,65 +1305,65 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="C14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9" t="s">
+      <c r="F14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>10</v>
@@ -1381,16 +1375,16 @@
         <v>13</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>13</v>
@@ -1398,7 +1392,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>10</v>
@@ -1413,53 +1407,51 @@
         <v>18</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="9" t="s">
+      <c r="G17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>13</v>
@@ -1471,22 +1463,22 @@
         <v>18</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>13</v>
@@ -1495,20 +1487,20 @@
         <v>13</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
@@ -1525,7 +1517,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>13</v>
@@ -1535,12 +1527,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>13</v>
@@ -1549,43 +1541,26 @@
         <v>13</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="9"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -1847,18 +1822,8 @@
       <c r="G48" s="5"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A4:I22"/>
+  <autoFilter ref="A4:I21"/>
   <mergeCells count="1">
     <mergeCell ref="A2:I2"/>
   </mergeCells>
@@ -1893,7 +1858,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -1923,7 +1888,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
@@ -1949,7 +1914,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -1963,10 +1928,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>13</v>
@@ -1978,7 +1943,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>13</v>
@@ -1992,10 +1957,10 @@
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>13</v>
@@ -2007,7 +1972,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>13</v>
@@ -2329,7 +2294,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -2359,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
@@ -2385,7 +2350,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -2399,10 +2364,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>13</v>
@@ -2414,7 +2379,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>13</v>
@@ -2428,10 +2393,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>13</v>
@@ -2443,13 +2408,13 @@
         <v>19</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>13</v>
@@ -2457,10 +2422,10 @@
     </row>
     <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>13</v>
@@ -2472,7 +2437,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>13</v>
@@ -2486,7 +2451,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>10</v>
@@ -2501,13 +2466,13 @@
         <v>19</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>13</v>
@@ -2764,7 +2729,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -2794,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
@@ -2820,7 +2785,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -2834,7 +2799,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>10</v>
@@ -2849,13 +2814,13 @@
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>13</v>
@@ -2863,10 +2828,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>13</v>
@@ -2878,7 +2843,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>13</v>
@@ -2892,10 +2857,10 @@
     </row>
     <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>13</v>
@@ -2907,7 +2872,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>13</v>
@@ -3166,7 +3131,7 @@
   <dimension ref="A2:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A4:I7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3185,7 +3150,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -3215,7 +3180,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>3</v>
@@ -3241,7 +3206,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>13</v>
@@ -3250,15 +3215,15 @@
         <v>13</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>13</v>
@@ -3270,10 +3235,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>13</v>
@@ -3284,10 +3249,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>13</v>
@@ -3299,7 +3264,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>13</v>
@@ -3615,7 +3580,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -3645,7 +3610,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
@@ -3671,14 +3636,14 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3686,7 +3651,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>13</v>
@@ -3698,10 +3663,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
@@ -3710,7 +3675,7 @@
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>10</v>
@@ -3725,10 +3690,10 @@
         <v>19</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
@@ -3991,7 +3956,7 @@
   <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4009,7 +3974,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -4039,7 +4004,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
@@ -4065,22 +4030,22 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>13</v>
@@ -4092,10 +4057,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
@@ -4148,7 +4113,7 @@
   <dimension ref="A2:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4166,7 +4131,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -4197,7 +4162,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
@@ -4223,22 +4188,22 @@
         <v>19</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>13</v>
@@ -4250,10 +4215,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -4562,7 +4527,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -4592,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
@@ -4618,22 +4583,22 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>13</v>
@@ -4645,10 +4610,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -4957,7 +4922,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -4987,7 +4952,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
@@ -5013,22 +4978,22 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>13</v>
@@ -5040,10 +5005,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -5342,7 +5307,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -5372,7 +5337,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
@@ -5398,19 +5363,19 @@
         <v>19</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>10</v>
@@ -5439,7 +5404,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>10</v>
@@ -5454,19 +5419,19 @@
         <v>19</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>10</v>
@@ -5481,22 +5446,22 @@
         <v>19</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>13</v>
@@ -5508,7 +5473,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>13</v>
@@ -5520,10 +5485,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>13</v>
@@ -5535,7 +5500,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>13</v>
@@ -5545,10 +5510,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>13</v>
@@ -5560,7 +5525,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>13</v>
@@ -5570,10 +5535,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>13</v>
@@ -5585,7 +5550,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>13</v>
@@ -5652,10 +5617,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>13</v>
@@ -5667,7 +5632,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>13</v>
@@ -5972,7 +5937,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -6002,7 +5967,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
@@ -6028,7 +5993,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -6042,10 +6007,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>13</v>
@@ -6057,7 +6022,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>13</v>
@@ -6071,10 +6036,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>13</v>
@@ -6086,7 +6051,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>13</v>
@@ -6101,10 +6066,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>13</v>
@@ -6116,7 +6081,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>13</v>
@@ -6131,7 +6096,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>16</v>
@@ -6146,7 +6111,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>13</v>
@@ -6161,10 +6126,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>13</v>
@@ -6176,7 +6141,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>13</v>
@@ -6191,10 +6156,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>13</v>
@@ -6206,7 +6171,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>13</v>
@@ -6221,10 +6186,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>13</v>
@@ -6236,7 +6201,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>13</v>
@@ -6250,7 +6215,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>10</v>
@@ -6265,7 +6230,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>13</v>

--- a/data/Карта таблиц.xlsx
+++ b/data/Карта таблиц.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="269">
   <si>
     <t>Поле</t>
   </si>
@@ -556,12 +556,6 @@
     <t>Отчёт строительного контроля о принятых объёмах: сс_accepted_volumes</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>год</t>
-  </si>
-  <si>
     <t>number_the_Customer</t>
   </si>
   <si>
@@ -891,6 +885,9 @@
   <si>
     <t>FOREIGN KEY (`company_id`) REFERENCES `contractor` (`id`)</t>
   </si>
+  <si>
+    <t>number_</t>
+  </si>
 </sst>
 </file>
 
@@ -1186,12 +1183,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1209,15 +1200,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1263,6 +1245,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1567,17 +1564,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2093,7 +2090,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2115,7 +2112,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2127,7 +2124,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2139,7 +2136,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2151,7 +2148,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2163,7 +2160,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2175,7 +2172,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2187,7 +2184,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2199,7 +2196,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2211,7 +2208,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2223,7 +2220,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2235,7 +2232,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2247,7 +2244,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2259,7 +2256,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2271,7 +2268,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2283,7 +2280,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2295,7 +2292,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2307,7 +2304,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2319,7 +2316,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2331,7 +2328,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2343,37 +2340,37 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2411,16 +2408,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2552,7 +2549,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -2576,7 +2573,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -2589,7 +2586,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -2602,7 +2599,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2614,7 +2611,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2626,7 +2623,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2638,7 +2635,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2861,16 +2858,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3058,7 +3055,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3298,16 +3295,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3477,7 +3474,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3700,10 +3697,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A2:K55"/>
+  <dimension ref="A2:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3715,25 +3712,25 @@
     <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="40" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3757,17 +3754,17 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="40"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -3780,7 +3777,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>121</v>
@@ -3788,9 +3785,9 @@
       <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48" t="s">
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43" t="s">
         <v>13</v>
       </c>
       <c r="K5" s="9" t="s">
@@ -3798,8 +3795,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>159</v>
+      <c r="A6" s="32" t="s">
+        <v>268</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>10</v>
@@ -3811,17 +3808,17 @@
         <v>13</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>160</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="13" t="s">
@@ -3829,8 +3826,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>163</v>
+      <c r="A7" s="32" t="s">
+        <v>161</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>10</v>
@@ -3845,14 +3842,14 @@
         <v>18</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="51" t="s">
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="13" t="s">
@@ -3860,8 +3857,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>161</v>
+      <c r="A8" s="32" t="s">
+        <v>159</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>10</v>
@@ -3876,14 +3873,14 @@
         <v>18</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51" t="s">
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="46" t="s">
         <v>13</v>
       </c>
       <c r="K8" s="13" t="s">
@@ -3891,8 +3888,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>165</v>
+      <c r="A9" s="32" t="s">
+        <v>163</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>78</v>
@@ -3907,14 +3904,14 @@
         <v>18</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="51" t="s">
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="13" t="s">
@@ -3922,7 +3919,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -3935,17 +3932,17 @@
         <v>13</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51" t="s">
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="13" t="s">
@@ -3953,7 +3950,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -3966,7 +3963,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>25</v>
@@ -3974,13 +3971,13 @@
       <c r="G11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="52" t="s">
-        <v>259</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="J11" s="53" t="s">
+      <c r="H11" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J11" s="48" t="s">
         <v>4</v>
       </c>
       <c r="K11" s="9" t="s">
@@ -3988,7 +3985,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="31" t="s">
         <v>156</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -4009,13 +4006,13 @@
       <c r="G12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="52" t="s">
+      <c r="H12" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="I12" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="J12" s="53" t="s">
+      <c r="I12" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J12" s="48" t="s">
         <v>4</v>
       </c>
       <c r="K12" s="9" t="s">
@@ -4023,7 +4020,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="31" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -4044,14 +4041,14 @@
       <c r="G13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="53"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="48"/>
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>168</v>
+      <c r="A14" s="31" t="s">
+        <v>166</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>73</v>
@@ -4063,22 +4060,22 @@
         <v>13</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="52"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="53"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="48"/>
       <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
-        <v>170</v>
+      <c r="A15" s="31" t="s">
+        <v>168</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>130</v>
@@ -4090,22 +4087,22 @@
         <v>13</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G15" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" s="47"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
         <v>172</v>
-      </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
-        <v>174</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>130</v>
@@ -4120,18 +4117,18 @@
         <v>18</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="53"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="31" t="s">
         <v>114</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -4144,28 +4141,28 @@
         <v>13</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="H17" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="I17" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="H17" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="J17" s="53" t="s">
+      <c r="J17" s="48" t="s">
         <v>4</v>
       </c>
       <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>180</v>
+      <c r="A18" s="31" t="s">
+        <v>178</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>10</v>
@@ -4177,28 +4174,28 @@
         <v>13</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="I18" s="36" t="s">
+      <c r="H18" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="J18" s="53" t="s">
+      <c r="I18" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J18" s="48" t="s">
         <v>4</v>
       </c>
       <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>181</v>
+      <c r="A19" s="31" t="s">
+        <v>179</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>10</v>
@@ -4210,31 +4207,31 @@
         <v>13</v>
       </c>
       <c r="E19" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="I19" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="H19" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="I19" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="J19" s="53" t="s">
+      <c r="J19" s="48" t="s">
         <v>4</v>
       </c>
       <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
-        <v>182</v>
+      <c r="A20" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>13</v>
@@ -4243,20 +4240,20 @@
         <v>13</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="53"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="48"/>
       <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>184</v>
+      <c r="A21" s="31" t="s">
+        <v>182</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>100</v>
@@ -4268,20 +4265,20 @@
         <v>13</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G21" s="11"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="53"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="48"/>
       <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>186</v>
+      <c r="A22" s="31" t="s">
+        <v>184</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>100</v>
@@ -4296,20 +4293,20 @@
         <v>18</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G22" s="11"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="53"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="48"/>
       <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>188</v>
+      <c r="A23" s="31" t="s">
+        <v>186</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>13</v>
@@ -4318,19 +4315,19 @@
         <v>13</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G23" s="11"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="53"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="48"/>
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="31" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -4349,11 +4346,11 @@
         <v>74</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="H24" s="54"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
+        <v>251</v>
+      </c>
+      <c r="H24" s="49"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="51"/>
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -4364,13 +4361,13 @@
       <c r="E25" s="2"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="42"/>
+      <c r="H25" s="37"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="44"/>
+      <c r="J25" s="39"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -4378,9 +4375,9 @@
       <c r="E26" s="2"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="42"/>
+      <c r="H26" s="37"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="44"/>
+      <c r="J26" s="39"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
@@ -4390,13 +4387,13 @@
       <c r="E27" s="2"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="42"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="44"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -4404,9 +4401,9 @@
       <c r="E28" s="2"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="42"/>
+      <c r="H28" s="37"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="44"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="str">
@@ -4419,14 +4416,14 @@
       <c r="E29" s="2"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="42"/>
+      <c r="H29" s="37"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="44"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
-        <f>"`"&amp;A6&amp;"` "&amp;B6&amp;" "&amp;E6&amp;","</f>
-        <v>`year` int NOT NULL,</v>
+        <f t="shared" ref="A30:A47" si="0">"`"&amp;A7&amp;"` "&amp;B7&amp;" "&amp;E7&amp;","</f>
+        <v>`call_Customer` int NULL,</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4434,14 +4431,14 @@
       <c r="E30" s="2"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="42"/>
+      <c r="H30" s="37"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="44"/>
+      <c r="J30" s="39"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
-        <f>"`"&amp;A7&amp;"` "&amp;B7&amp;" "&amp;E7&amp;","</f>
-        <v>`call_Customer` int NULL,</v>
+        <f t="shared" si="0"/>
+        <v>`number_the_Customer` int NULL,</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4449,14 +4446,14 @@
       <c r="E31" s="2"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="42"/>
+      <c r="H31" s="37"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="44"/>
+      <c r="J31" s="39"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
-        <f>"`"&amp;A8&amp;"` "&amp;B8&amp;" "&amp;E8&amp;","</f>
-        <v>`number_the_Customer` int NULL,</v>
+        <f t="shared" si="0"/>
+        <v>`number_in_b_estimate` varchar(32) NULL,</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4464,14 +4461,14 @@
       <c r="E32" s="2"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="42"/>
+      <c r="H32" s="37"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="44"/>
+      <c r="J32" s="39"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
-        <f>"`"&amp;A9&amp;"` "&amp;B9&amp;" "&amp;E9&amp;","</f>
-        <v>`number_in_b_estimate` varchar(32) NULL,</v>
+        <f t="shared" si="0"/>
+        <v>`number_in_order` int NOT NULL,</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4479,14 +4476,14 @@
       <c r="E33" s="2"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="42"/>
+      <c r="H33" s="37"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="44"/>
+      <c r="J33" s="39"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
-        <f>"`"&amp;A10&amp;"` "&amp;B10&amp;" "&amp;E10&amp;","</f>
-        <v>`number_in_order` int NOT NULL,</v>
+        <f t="shared" si="0"/>
+        <v>`name_id` int NOT NULL,</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4494,14 +4491,14 @@
       <c r="E34" s="2"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="42"/>
+      <c r="H34" s="37"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="44"/>
+      <c r="J34" s="39"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f>"`"&amp;A11&amp;"` "&amp;B11&amp;" "&amp;E11&amp;","</f>
-        <v>`name_id` int NOT NULL,</v>
+        <f t="shared" si="0"/>
+        <v>`dimension` int NULL,</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4509,14 +4506,14 @@
       <c r="E35" s="2"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="42"/>
+      <c r="H35" s="37"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="44"/>
+      <c r="J35" s="39"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
-        <f>"`"&amp;A12&amp;"` "&amp;B12&amp;" "&amp;E12&amp;","</f>
-        <v>`dimension` int NULL,</v>
+        <f t="shared" si="0"/>
+        <v>`value` float NULL,</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4524,14 +4521,14 @@
       <c r="E36" s="2"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="42"/>
+      <c r="H36" s="37"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="44"/>
+      <c r="J36" s="39"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
-        <f>"`"&amp;A13&amp;"` "&amp;B13&amp;" "&amp;E13&amp;","</f>
-        <v>`value` float NULL,</v>
+        <f t="shared" si="0"/>
+        <v>`code` varchar(255) NOT NULL,</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4539,123 +4536,108 @@
       <c r="E37" s="2"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="42"/>
+      <c r="H37" s="37"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="44"/>
+      <c r="J37" s="39"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
-        <f>"`"&amp;A14&amp;"` "&amp;B14&amp;" "&amp;E14&amp;","</f>
-        <v>`code` varchar(255) NOT NULL,</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="44"/>
+        <f t="shared" si="0"/>
+        <v>`date_of_the_call` date NOT NULL,</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
-        <f>"`"&amp;A15&amp;"` "&amp;B15&amp;" "&amp;E15&amp;","</f>
-        <v>`date_of_the_call` date NOT NULL,</v>
+        <f t="shared" si="0"/>
+        <v>`actual_date` date NULL,</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
-        <f>"`"&amp;A16&amp;"` "&amp;B16&amp;" "&amp;E16&amp;","</f>
-        <v>`actual_date` date NULL,</v>
+        <f t="shared" si="0"/>
+        <v>`id_contractor` int NOT NULL,</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
-        <f>"`"&amp;A17&amp;"` "&amp;B17&amp;" "&amp;E17&amp;","</f>
-        <v>`id_contractor` int NOT NULL,</v>
+        <f t="shared" si="0"/>
+        <v>`id_actual_contractor` int NOT NULL,</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
-        <f>"`"&amp;A18&amp;"` "&amp;B18&amp;" "&amp;E18&amp;","</f>
-        <v>`id_actual_contractor` int NOT NULL,</v>
+        <f t="shared" si="0"/>
+        <v>`id_CC_engineer` int NOT NULL,</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
-        <f>"`"&amp;A19&amp;"` "&amp;B19&amp;" "&amp;E19&amp;","</f>
-        <v>`id_CC_engineer` int NOT NULL,</v>
+        <f t="shared" si="0"/>
+        <v>`result` tinyint(1) NOT NULL,</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
-        <f>"`"&amp;A20&amp;"` "&amp;B20&amp;" "&amp;E20&amp;","</f>
-        <v>`result` tinyint(1) NOT NULL,</v>
+        <f t="shared" si="0"/>
+        <v>`axes` varchar(24) NOT NULL,</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
-        <f>"`"&amp;A21&amp;"` "&amp;B21&amp;" "&amp;E21&amp;","</f>
-        <v>`axes` varchar(24) NOT NULL,</v>
+        <f t="shared" si="0"/>
+        <v>`room` varchar(24) NULL,</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
-        <f>"`"&amp;A22&amp;"` "&amp;B22&amp;" "&amp;E22&amp;","</f>
-        <v>`room` varchar(24) NULL,</v>
+        <f t="shared" si="0"/>
+        <v>`floor` varchar(36) NOT NULL,</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f>"`"&amp;A23&amp;"` "&amp;B23&amp;" "&amp;E23&amp;","</f>
-        <v>`floor` varchar(36) NOT NULL,</v>
+        <f t="shared" si="0"/>
+        <v>`note` varchar(255) NULL,</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="str">
-        <f>"`"&amp;A24&amp;"` "&amp;B24&amp;" "&amp;E24&amp;","</f>
-        <v>`note` varchar(255) NULL,</v>
+      <c r="A48" s="4" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>257</v>
+      <c r="A49" t="str">
+        <f>"FOREIGN KEY (`"&amp;A11&amp;"`) REFERENCES `"&amp;H11&amp;"` (`"&amp;J11&amp;"`),"</f>
+        <v>FOREIGN KEY (`name_id`) REFERENCES `name_of_works_and_materials` (`id`),</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f>"FOREIGN KEY (`"&amp;A11&amp;"`) REFERENCES `"&amp;H11&amp;"` (`"&amp;J11&amp;"`),"</f>
-        <v>FOREIGN KEY (`name_id`) REFERENCES `name_of_works_and_materials` (`id`),</v>
+        <f>"FOREIGN KEY (`"&amp;A12&amp;"`) REFERENCES `"&amp;H12&amp;"` (`"&amp;J12&amp;"`),"</f>
+        <v>FOREIGN KEY (`dimension`) REFERENCES `dimension` (`id`),</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f>"FOREIGN KEY (`"&amp;A12&amp;"`) REFERENCES `"&amp;H12&amp;"` (`"&amp;J12&amp;"`),"</f>
-        <v>FOREIGN KEY (`dimension`) REFERENCES `dimension` (`id`),</v>
+        <f>"FOREIGN KEY (`"&amp;A17&amp;"`) REFERENCES `"&amp;H17&amp;"` (`"&amp;J17&amp;"`),"</f>
+        <v>FOREIGN KEY (`id_contractor`) REFERENCES `people` (`id`),</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f>"FOREIGN KEY (`"&amp;A17&amp;"`) REFERENCES `"&amp;H17&amp;"` (`"&amp;J17&amp;"`),"</f>
-        <v>FOREIGN KEY (`id_contractor`) REFERENCES `people` (`id`),</v>
+        <f>"FOREIGN KEY (`"&amp;A18&amp;"`) REFERENCES `"&amp;H18&amp;"` (`"&amp;J18&amp;"`),"</f>
+        <v>FOREIGN KEY (`id_actual_contractor`) REFERENCES `people` (`id`),</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f>"FOREIGN KEY (`"&amp;A18&amp;"`) REFERENCES `"&amp;H18&amp;"` (`"&amp;J18&amp;"`),"</f>
-        <v>FOREIGN KEY (`id_actual_contractor`) REFERENCES `people` (`id`),</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
         <f>"FOREIGN KEY (`"&amp;A19&amp;"`) REFERENCES `"&amp;H19&amp;"` (`"&amp;J19&amp;"`)"</f>
         <v>FOREIGN KEY (`id_CC_engineer`) REFERENCES `people` (`id`)</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>208</v>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4694,16 +4676,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16384" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="4" spans="1:16384" s="23" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -4833,7 +4815,7 @@
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -37607,7 +37589,7 @@
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -37619,7 +37601,7 @@
     </row>
     <row r="12" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -37631,7 +37613,7 @@
     </row>
     <row r="13" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -37643,7 +37625,7 @@
     </row>
     <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -37655,7 +37637,7 @@
     </row>
     <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -37667,7 +37649,7 @@
     </row>
     <row r="16" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -37679,7 +37661,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -37912,16 +37894,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -38034,19 +38016,19 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -38068,7 +38050,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -38080,7 +38062,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -38092,7 +38074,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -38104,7 +38086,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -38116,7 +38098,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -38128,7 +38110,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -38140,7 +38122,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -38343,16 +38325,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -38449,7 +38431,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -38471,32 +38453,32 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -38532,17 +38514,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -38637,7 +38619,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -38659,7 +38641,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -38671,7 +38653,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -38683,7 +38665,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -38695,7 +38677,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -38707,7 +38689,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -38719,7 +38701,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -38942,16 +38924,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -39046,7 +39028,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -39068,7 +39050,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -39080,7 +39062,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -39092,7 +39074,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -39104,7 +39086,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -39116,7 +39098,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -39349,16 +39331,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -39453,7 +39435,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -39475,7 +39457,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -39487,7 +39469,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -39499,7 +39481,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -39511,7 +39493,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -39523,7 +39505,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -39535,7 +39517,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -39748,16 +39730,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -40096,7 +40078,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -40118,7 +40100,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -40130,7 +40112,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -40142,7 +40124,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -40154,7 +40136,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -40166,7 +40148,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -40178,7 +40160,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -40190,7 +40172,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -40202,7 +40184,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -40214,7 +40196,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -40226,7 +40208,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -40238,7 +40220,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -40250,7 +40232,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -40262,7 +40244,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -40406,16 +40388,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -40725,7 +40707,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -40749,7 +40731,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -40762,7 +40744,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -40775,7 +40757,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -40787,7 +40769,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -40799,7 +40781,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -40811,7 +40793,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -40823,7 +40805,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -40835,7 +40817,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -40847,7 +40829,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -40859,7 +40841,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -40871,7 +40853,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -40883,7 +40865,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -40895,7 +40877,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -40907,7 +40889,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>

--- a/data/Карта таблиц.xlsx
+++ b/data/Карта таблиц.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="846" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="846" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="basic_estimate" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="date" sheetId="11" r:id="rId11"/>
     <sheet name="critical_remarks" sheetId="12" r:id="rId12"/>
     <sheet name="сс_accepted_volumes" sheetId="13" r:id="rId13"/>
+    <sheet name="code_list" sheetId="14" r:id="rId14"/>
+    <sheet name="code" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">basic_estimate!$A$4:$I$21</definedName>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="281">
   <si>
     <t>Поле</t>
   </si>
@@ -886,7 +888,43 @@
     <t>FOREIGN KEY (`company_id`) REFERENCES `contractor` (`id`)</t>
   </si>
   <si>
-    <t>number_</t>
+    <t>Соотношение id сс_accepted_volumes и id code: code_list</t>
+  </si>
+  <si>
+    <t>id_сс_accepted_volumes</t>
+  </si>
+  <si>
+    <t>id_code</t>
+  </si>
+  <si>
+    <t>сс_accepted_volumes</t>
+  </si>
+  <si>
+    <t>Список шифров проекта: code</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>Шифр проекта или запись в ЖАН</t>
+  </si>
+  <si>
+    <t>Дата записи (при наличии)</t>
+  </si>
+  <si>
+    <t>Лист (при наличии)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE `code_list` (</t>
+  </si>
+  <si>
+    <t>CREATE TABLE `code` (</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY (`id`)</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1260,6 +1298,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3697,10 +3765,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A2:K54"/>
+  <dimension ref="A2:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3796,7 +3864,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>268</v>
+        <v>161</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>10</v>
@@ -3811,10 +3879,10 @@
         <v>18</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H6" s="44"/>
       <c r="I6" s="45"/>
@@ -3827,7 +3895,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>10</v>
@@ -3842,10 +3910,10 @@
         <v>18</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="H7" s="44"/>
       <c r="I7" s="45"/>
@@ -3856,12 +3924,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>13</v>
@@ -3873,10 +3941,10 @@
         <v>18</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H8" s="44"/>
       <c r="I8" s="45"/>
@@ -3887,12 +3955,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>13</v>
@@ -3901,13 +3969,13 @@
         <v>13</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>18</v>
+        <v>254</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="44"/>
       <c r="I9" s="45"/>
@@ -3919,39 +3987,43 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="13" t="s">
+      <c r="F10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>10</v>
@@ -3963,16 +4035,16 @@
         <v>13</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="I11" s="34" t="s">
         <v>256</v>
@@ -3986,10 +4058,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>13</v>
@@ -4001,30 +4073,22 @@
         <v>18</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="J12" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>13</v>
@@ -4033,13 +4097,13 @@
         <v>13</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>18</v>
+        <v>254</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="34"/>
@@ -4048,10 +4112,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>13</v>
@@ -4063,10 +4127,10 @@
         <v>254</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="34"/>
@@ -4075,7 +4139,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>130</v>
@@ -4087,13 +4151,13 @@
         <v>13</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="34"/>
@@ -4102,10 +4166,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>13</v>
@@ -4114,22 +4178,28 @@
         <v>13</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>18</v>
+        <v>254</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="48"/>
+        <v>173</v>
+      </c>
+      <c r="H16" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>4</v>
+      </c>
       <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>10</v>
@@ -4144,10 +4214,10 @@
         <v>254</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="H17" s="47" t="s">
         <v>258</v>
@@ -4160,9 +4230,9 @@
       </c>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>10</v>
@@ -4177,10 +4247,10 @@
         <v>254</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="H18" s="47" t="s">
         <v>258</v>
@@ -4193,12 +4263,12 @@
       </c>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>13</v>
@@ -4210,28 +4280,20 @@
         <v>254</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="H19" s="47" t="s">
-        <v>258</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="J19" s="48" t="s">
-        <v>4</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="48"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>259</v>
+        <v>100</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>13</v>
@@ -4243,7 +4305,7 @@
         <v>254</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="47"/>
@@ -4253,7 +4315,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>100</v>
@@ -4265,10 +4327,10 @@
         <v>13</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="47"/>
@@ -4278,10 +4340,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>13</v>
@@ -4290,10 +4352,10 @@
         <v>13</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>18</v>
+        <v>254</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="47"/>
@@ -4303,10 +4365,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>250</v>
+        <v>73</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>13</v>
@@ -4315,46 +4377,35 @@
         <v>13</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="48"/>
+        <v>74</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="H23" s="49"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="9"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="39"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>214</v>
+      </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -4366,9 +4417,7 @@
       <c r="J25" s="39"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>214</v>
-      </c>
+      <c r="A26" s="4"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4380,7 +4429,9 @@
       <c r="J26" s="39"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="24" t="s">
+        <v>252</v>
+      </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4392,8 +4443,9 @@
       <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>252</v>
+      <c r="A28" s="24" t="str">
+        <f>"`"&amp;A5&amp;"` "&amp;B5&amp;" NOT NULL AUTO_INCREMENT,"</f>
+        <v>`id` int NOT NULL AUTO_INCREMENT,</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -4406,9 +4458,9 @@
       <c r="J28" s="39"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="str">
-        <f>"`"&amp;A5&amp;"` "&amp;B5&amp;" NOT NULL AUTO_INCREMENT,"</f>
-        <v>`id` int NOT NULL AUTO_INCREMENT,</v>
+      <c r="A29" s="4" t="str">
+        <f t="shared" ref="A29:A46" si="0">"`"&amp;A6&amp;"` "&amp;B6&amp;" "&amp;E6&amp;","</f>
+        <v>`call_Customer` int NULL,</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -4422,8 +4474,8 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
-        <f t="shared" ref="A30:A47" si="0">"`"&amp;A7&amp;"` "&amp;B7&amp;" "&amp;E7&amp;","</f>
-        <v>`call_Customer` int NULL,</v>
+        <f t="shared" si="0"/>
+        <v>`number_the_Customer` int NULL,</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4438,7 +4490,7 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`number_the_Customer` int NULL,</v>
+        <v>`number_in_b_estimate` varchar(32) NULL,</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4453,7 +4505,7 @@
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`number_in_b_estimate` varchar(32) NULL,</v>
+        <v>`number_in_order` int NOT NULL,</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4468,7 +4520,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`number_in_order` int NOT NULL,</v>
+        <v>`name_id` int NOT NULL,</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4483,7 +4535,7 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`name_id` int NOT NULL,</v>
+        <v>`dimension` int NULL,</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4498,7 +4550,7 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`dimension` int NULL,</v>
+        <v>`value` float NULL,</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4513,7 +4565,7 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`value` float NULL,</v>
+        <v>`code` varchar(255) NOT NULL,</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4528,115 +4580,100 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`code` varchar(255) NOT NULL,</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="39"/>
+        <v>`date_of_the_call` date NOT NULL,</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`date_of_the_call` date NOT NULL,</v>
+        <v>`actual_date` date NULL,</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`actual_date` date NULL,</v>
+        <v>`id_contractor` int NOT NULL,</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`id_contractor` int NOT NULL,</v>
+        <v>`id_actual_contractor` int NOT NULL,</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`id_actual_contractor` int NOT NULL,</v>
+        <v>`id_CC_engineer` int NOT NULL,</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`id_CC_engineer` int NOT NULL,</v>
+        <v>`result` tinyint(1) NOT NULL,</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`result` tinyint(1) NOT NULL,</v>
+        <v>`axes` varchar(24) NOT NULL,</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`axes` varchar(24) NOT NULL,</v>
+        <v>`room` varchar(24) NULL,</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`room` varchar(24) NULL,</v>
+        <v>`floor` varchar(36) NOT NULL,</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`floor` varchar(36) NOT NULL,</v>
+        <v>`note` varchar(255) NULL,</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`note` varchar(255) NULL,</v>
+      <c r="A47" s="4" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>255</v>
+      <c r="A48" t="str">
+        <f>"FOREIGN KEY (`"&amp;A10&amp;"`) REFERENCES `"&amp;H10&amp;"` (`"&amp;J10&amp;"`),"</f>
+        <v>FOREIGN KEY (`name_id`) REFERENCES `name_of_works_and_materials` (`id`),</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>"FOREIGN KEY (`"&amp;A11&amp;"`) REFERENCES `"&amp;H11&amp;"` (`"&amp;J11&amp;"`),"</f>
-        <v>FOREIGN KEY (`name_id`) REFERENCES `name_of_works_and_materials` (`id`),</v>
+        <v>FOREIGN KEY (`dimension`) REFERENCES `dimension` (`id`),</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f>"FOREIGN KEY (`"&amp;A12&amp;"`) REFERENCES `"&amp;H12&amp;"` (`"&amp;J12&amp;"`),"</f>
-        <v>FOREIGN KEY (`dimension`) REFERENCES `dimension` (`id`),</v>
+        <f>"FOREIGN KEY (`"&amp;A16&amp;"`) REFERENCES `"&amp;H16&amp;"` (`"&amp;J16&amp;"`),"</f>
+        <v>FOREIGN KEY (`id_contractor`) REFERENCES `people` (`id`),</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>"FOREIGN KEY (`"&amp;A17&amp;"`) REFERENCES `"&amp;H17&amp;"` (`"&amp;J17&amp;"`),"</f>
-        <v>FOREIGN KEY (`id_contractor`) REFERENCES `people` (`id`),</v>
+        <v>FOREIGN KEY (`id_actual_contractor`) REFERENCES `people` (`id`),</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f>"FOREIGN KEY (`"&amp;A18&amp;"`) REFERENCES `"&amp;H18&amp;"` (`"&amp;J18&amp;"`),"</f>
-        <v>FOREIGN KEY (`id_actual_contractor`) REFERENCES `people` (`id`),</v>
+        <f>"FOREIGN KEY (`"&amp;A18&amp;"`) REFERENCES `"&amp;H18&amp;"` (`"&amp;J18&amp;"`)"</f>
+        <v>FOREIGN KEY (`id_CC_engineer`) REFERENCES `people` (`id`)</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
-        <f>"FOREIGN KEY (`"&amp;A19&amp;"`) REFERENCES `"&amp;H19&amp;"` (`"&amp;J19&amp;"`)"</f>
-        <v>FOREIGN KEY (`id_CC_engineer`) REFERENCES `people` (`id`)</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="A53" s="4" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4647,6 +4684,625 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+    </row>
+    <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="J6" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="J7" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="39"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="39"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="39"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="str">
+        <f>"`"&amp;A5&amp;"` "&amp;B5&amp;" NOT NULL AUTO_INCREMENT,"</f>
+        <v>`id` int NOT NULL AUTO_INCREMENT,</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="39"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="str">
+        <f>"`"&amp;A6&amp;"` "&amp;B6&amp;" "&amp;E6&amp;","</f>
+        <v>`id_сс_accepted_volumes` int NULL,</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="39"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="str">
+        <f>"`"&amp;A7&amp;"` "&amp;B7&amp;" "&amp;E7&amp;","</f>
+        <v>`id_code` int NULL,</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="39"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>"FOREIGN KEY (`"&amp;A6&amp;"`) REFERENCES `"&amp;H6&amp;"` (`"&amp;J6&amp;"`),"</f>
+        <v>FOREIGN KEY (`id_сс_accepted_volumes`) REFERENCES `сс_accepted_volumes` (`id`),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>"FOREIGN KEY (`"&amp;A7&amp;"`) REFERENCES `"&amp;H7&amp;"` (`"&amp;J7&amp;"`)"</f>
+        <v>FOREIGN KEY (`id_code`) REFERENCES `code` (`id`)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="H4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A2:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+    </row>
+    <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="39"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="39"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="39"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="str">
+        <f>"`"&amp;A5&amp;"` "&amp;B5&amp;" NOT NULL AUTO_INCREMENT,"</f>
+        <v>`id` int NOT NULL AUTO_INCREMENT,</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="39"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="str">
+        <f>"`"&amp;A6&amp;"` "&amp;B6&amp;" "&amp;E6&amp;","</f>
+        <v>`code` varchar(100) NOT NULL,</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="39"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="str">
+        <f t="shared" ref="A15:A16" si="0">"`"&amp;A7&amp;"` "&amp;B7&amp;" "&amp;E7&amp;","</f>
+        <v>`date` date NULL,</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="39"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>`list` varchar(64) NULL,</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="39"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="H4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/data/Карта таблиц.xlsx
+++ b/data/Карта таблиц.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="846" firstSheet="1" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="846" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="basic_estimate" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">basic_estimate!$A$4:$I$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="285">
   <si>
     <t>Поле</t>
   </si>
@@ -926,6 +927,18 @@
   <si>
     <t>varchar(100)</t>
   </si>
+  <si>
+    <t>number_report</t>
+  </si>
+  <si>
+    <t>Номер отчёта</t>
+  </si>
+  <si>
+    <t>date_report</t>
+  </si>
+  <si>
+    <t>Дата отчёта</t>
+  </si>
 </sst>
 </file>
 
@@ -1284,21 +1297,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1328,6 +1326,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1632,17 +1645,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2476,16 +2489,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2926,16 +2939,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3363,16 +3376,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3764,11 +3777,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K53"/>
+  <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3787,18 +3801,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3822,11 +3836,11 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
@@ -4365,10 +4379,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>72</v>
+        <v>281</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>13</v>
@@ -4377,44 +4391,68 @@
         <v>13</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G25" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="39"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -4429,8 +4467,8 @@
       <c r="J26" s="39"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>252</v>
+      <c r="A27" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -4443,10 +4481,7 @@
       <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="str">
-        <f>"`"&amp;A5&amp;"` "&amp;B5&amp;" NOT NULL AUTO_INCREMENT,"</f>
-        <v>`id` int NOT NULL AUTO_INCREMENT,</v>
-      </c>
+      <c r="A28" s="4"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4458,9 +4493,8 @@
       <c r="J28" s="39"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="str">
-        <f t="shared" ref="A29:A46" si="0">"`"&amp;A6&amp;"` "&amp;B6&amp;" "&amp;E6&amp;","</f>
-        <v>`call_Customer` int NULL,</v>
+      <c r="A29" s="24" t="s">
+        <v>252</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -4473,9 +4507,9 @@
       <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`number_the_Customer` int NULL,</v>
+      <c r="A30" s="24" t="str">
+        <f>"`"&amp;A5&amp;"` "&amp;B5&amp;" NOT NULL AUTO_INCREMENT,"</f>
+        <v>`id` int NOT NULL AUTO_INCREMENT,</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4489,8 +4523,8 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`number_in_b_estimate` varchar(32) NULL,</v>
+        <f t="shared" ref="A31:A50" si="0">"`"&amp;A6&amp;"` "&amp;B6&amp;" "&amp;E6&amp;","</f>
+        <v>`call_Customer` int NULL,</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4505,7 +4539,7 @@
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`number_in_order` int NOT NULL,</v>
+        <v>`number_the_Customer` int NULL,</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4520,7 +4554,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`name_id` int NOT NULL,</v>
+        <v>`number_in_b_estimate` varchar(32) NULL,</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4535,7 +4569,7 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`dimension` int NULL,</v>
+        <v>`number_in_order` int NOT NULL,</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4550,7 +4584,7 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`value` float NULL,</v>
+        <v>`name_id` int NOT NULL,</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4565,7 +4599,7 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`code` varchar(255) NOT NULL,</v>
+        <v>`dimension` int NULL,</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4580,100 +4614,142 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`date_of_the_call` date NOT NULL,</v>
-      </c>
+        <v>`value` float NULL,</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="39"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`actual_date` date NULL,</v>
-      </c>
+        <v>`code` varchar(255) NOT NULL,</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="39"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`id_contractor` int NOT NULL,</v>
+        <v>`date_of_the_call` date NOT NULL,</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`id_actual_contractor` int NOT NULL,</v>
+        <v>`actual_date` date NULL,</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`id_CC_engineer` int NOT NULL,</v>
+        <v>`id_contractor` int NOT NULL,</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`result` tinyint(1) NOT NULL,</v>
+        <v>`id_actual_contractor` int NOT NULL,</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`axes` varchar(24) NOT NULL,</v>
+        <v>`id_CC_engineer` int NOT NULL,</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`room` varchar(24) NULL,</v>
+        <v>`result` tinyint(1) NOT NULL,</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`floor` varchar(36) NOT NULL,</v>
+        <v>`axes` varchar(24) NOT NULL,</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>`room` varchar(24) NULL,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>`floor` varchar(36) NOT NULL,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>`number_report` int NOT NULL,</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>`date_report` int NOT NULL,</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>`note` varchar(255) NULL,</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
         <f>"FOREIGN KEY (`"&amp;A10&amp;"`) REFERENCES `"&amp;H10&amp;"` (`"&amp;J10&amp;"`),"</f>
         <v>FOREIGN KEY (`name_id`) REFERENCES `name_of_works_and_materials` (`id`),</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
         <f>"FOREIGN KEY (`"&amp;A11&amp;"`) REFERENCES `"&amp;H11&amp;"` (`"&amp;J11&amp;"`),"</f>
         <v>FOREIGN KEY (`dimension`) REFERENCES `dimension` (`id`),</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
         <f>"FOREIGN KEY (`"&amp;A16&amp;"`) REFERENCES `"&amp;H16&amp;"` (`"&amp;J16&amp;"`),"</f>
         <v>FOREIGN KEY (`id_contractor`) REFERENCES `people` (`id`),</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
         <f>"FOREIGN KEY (`"&amp;A17&amp;"`) REFERENCES `"&amp;H17&amp;"` (`"&amp;J17&amp;"`),"</f>
         <v>FOREIGN KEY (`id_actual_contractor`) REFERENCES `people` (`id`),</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
         <f>"FOREIGN KEY (`"&amp;A18&amp;"`) REFERENCES `"&amp;H18&amp;"` (`"&amp;J18&amp;"`)"</f>
         <v>FOREIGN KEY (`id_CC_engineer`) REFERENCES `people` (`id`)</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4683,7 +4759,7 @@
     <mergeCell ref="H4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4691,7 +4767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -4711,18 +4787,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -4746,11 +4822,11 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
@@ -4787,7 +4863,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="52" t="s">
         <v>269</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -4808,13 +4884,13 @@
       <c r="G6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="55" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="17" t="s">
@@ -4822,7 +4898,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="52" t="s">
         <v>270</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -4843,13 +4919,13 @@
       <c r="G7" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="58" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="17" t="s">
@@ -5011,18 +5087,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -5046,11 +5122,11 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
@@ -5079,7 +5155,7 @@
       </c>
       <c r="H5" s="41"/>
       <c r="I5" s="42"/>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="59" t="s">
         <v>13</v>
       </c>
       <c r="K5" s="9" t="s">
@@ -5087,7 +5163,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="52" t="s">
         <v>166</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -5108,9 +5184,9 @@
       <c r="G6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="65" t="s">
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="60" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="17" t="s">
@@ -5118,7 +5194,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="52" t="s">
         <v>130</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -5137,9 +5213,9 @@
         <v>275</v>
       </c>
       <c r="G7" s="19"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="65" t="s">
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="60" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="17" t="s">
@@ -5147,7 +5223,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="52" t="s">
         <v>273</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -5166,9 +5242,9 @@
         <v>276</v>
       </c>
       <c r="G8" s="19"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="66" t="s">
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="61" t="s">
         <v>13</v>
       </c>
       <c r="K8" s="17" t="s">
@@ -5259,7 +5335,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
-        <f t="shared" ref="A15:A16" si="0">"`"&amp;A7&amp;"` "&amp;B7&amp;" "&amp;E7&amp;","</f>
+        <f>"`"&amp;A7&amp;"` "&amp;B7&amp;" "&amp;E7&amp;","</f>
         <v>`date` date NULL,</v>
       </c>
       <c r="B15" s="2"/>
@@ -5274,7 +5350,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"`"&amp;A8&amp;"` "&amp;B8&amp;" "&amp;E8&amp;","</f>
         <v>`list` varchar(64) NULL,</v>
       </c>
       <c r="B16" s="2"/>
@@ -5332,16 +5408,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16384" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="4" spans="1:16384" s="23" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -38550,16 +38626,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -38981,16 +39057,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -39170,17 +39246,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -39580,16 +39656,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -39987,16 +40063,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -40386,16 +40462,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -41044,16 +41120,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">

--- a/data/Карта таблиц.xlsx
+++ b/data/Карта таблиц.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="846" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="846" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="basic_estimate" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,14 @@
     <sheet name="date" sheetId="11" r:id="rId11"/>
     <sheet name="critical_remarks" sheetId="12" r:id="rId12"/>
     <sheet name="сс_accepted_volumes" sheetId="13" r:id="rId13"/>
-    <sheet name="code_list" sheetId="14" r:id="rId14"/>
-    <sheet name="code" sheetId="15" r:id="rId15"/>
+    <sheet name="Лист1" sheetId="16" r:id="rId14"/>
+    <sheet name="code_list" sheetId="14" r:id="rId15"/>
+    <sheet name="code" sheetId="15" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">basic_estimate!$A$4:$I$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="316">
   <si>
     <t>Поле</t>
   </si>
@@ -939,6 +939,99 @@
   <si>
     <t>Дата отчёта</t>
   </si>
+  <si>
+    <t xml:space="preserve">  KEY `id_CC_engineer` (`id_CC_engineer`),</t>
+  </si>
+  <si>
+    <t>USE `polytechstroy`;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `call_Customer` int DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `number_the_Customer` int DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `number_in_b_estimate` varchar(32) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `number_in_order` int NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `code` varchar(255) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `date_of_the_call` date NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `actual_date` date DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `id_actual_contractor` int NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `id_CC_engineer` int NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `result` tinyint(1) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `axes` varchar(255) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `room` varchar(24) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `floor` varchar(36) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `number_СС_Report` int NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `id_report` int NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `date_report` date NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  KEY `name_id` (`name_id`),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  KEY `dimension` (`dimension`),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  KEY `id_actual_contractor` (`id_actual_contractor`),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CONSTRAINT `сс_accepted_volumes_ibfk_1` FOREIGN KEY (`name_id`) REFERENCES `name_of_works_and_materials` (`id`),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CONSTRAINT `сс_accepted_volumes_ibfk_2` FOREIGN KEY (`dimension`) REFERENCES `dimension` (`id`),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CONSTRAINT `сс_accepted_volumes_ibfk_3` FOREIGN KEY (`id_contractor`) REFERENCES `people` (`id`),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CONSTRAINT `сс_accepted_volumes_ibfk_4` FOREIGN KEY (`id_actual_contractor`) REFERENCES `people` (`id`),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  KEY `id_report` (`id_report`),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CONSTRAINT `сс_accepted_volumes_ibfk_5` FOREIGN KEY (`id_CC_engineer`) REFERENCES `people` (`id`),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CONSTRAINT `сс_accepted_volumes_ibfk_6` FOREIGN KEY (`id_report`) REFERENCES `report` (`id`)</t>
+  </si>
+  <si>
+    <t>Соотношение report: таблица номеров отчетов и дат</t>
+  </si>
+  <si>
+    <t>date_start</t>
+  </si>
+  <si>
+    <t>date_finish</t>
+  </si>
 </sst>
 </file>
 
@@ -1150,7 +1243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1340,6 +1433,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3779,10 +3887,10 @@
     <tabColor theme="9" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K57"/>
+  <dimension ref="A2:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A25"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4753,6 +4861,196 @@
         <v>206</v>
       </c>
     </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>236</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:J2"/>
@@ -4768,7 +5066,7 @@
   <dimension ref="A2:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5061,6 +5359,308 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+    </row>
+    <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="70"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="47"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="47"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="39"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="39"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="39"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="str">
+        <f>"`"&amp;A5&amp;"` "&amp;B5&amp;" NOT NULL AUTO_INCREMENT,"</f>
+        <v>`id` int NOT NULL AUTO_INCREMENT,</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="39"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="str">
+        <f>"`"&amp;A7&amp;"` "&amp;B7&amp;" "&amp;E7&amp;","</f>
+        <v>`date_start` date NOT NULL,</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="39"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="str">
+        <f>"`"&amp;A8&amp;"` "&amp;B8&amp;" "&amp;E8&amp;","</f>
+        <v>`date_finish` date NOT NULL,</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="39"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="H4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>

--- a/data/Карта таблиц.xlsx
+++ b/data/Карта таблиц.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="846" firstSheet="1" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="846" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="basic_estimate" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,15 @@
     <sheet name="date" sheetId="11" r:id="rId11"/>
     <sheet name="critical_remarks" sheetId="12" r:id="rId12"/>
     <sheet name="сс_accepted_volumes" sheetId="13" r:id="rId13"/>
-    <sheet name="Лист1" sheetId="16" r:id="rId14"/>
-    <sheet name="code_list" sheetId="14" r:id="rId15"/>
+    <sheet name="code_list" sheetId="16" r:id="rId14"/>
+    <sheet name="report" sheetId="14" r:id="rId15"/>
     <sheet name="code" sheetId="15" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">basic_estimate!$A$4:$I$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="330">
   <si>
     <t>Поле</t>
   </si>
@@ -1032,6 +1033,48 @@
   <si>
     <t>date_finish</t>
   </si>
+  <si>
+    <t>Дата начала отчётного периода</t>
+  </si>
+  <si>
+    <t>Дата окончания отчётного периода</t>
+  </si>
+  <si>
+    <t>on_schedule</t>
+  </si>
+  <si>
+    <t>off_schedule</t>
+  </si>
+  <si>
+    <t>not_presented</t>
+  </si>
+  <si>
+    <t>not_accepted_for_various_reasons</t>
+  </si>
+  <si>
+    <t>accepted_in_the_previous_period</t>
+  </si>
+  <si>
+    <t>accepted</t>
+  </si>
+  <si>
+    <t>Количеcтво по графику</t>
+  </si>
+  <si>
+    <t>Количеcтво вне графика</t>
+  </si>
+  <si>
+    <t>Количеcтво не предъявлено</t>
+  </si>
+  <si>
+    <t>Количеcтво не принято по различным причинам</t>
+  </si>
+  <si>
+    <t>Количеcтво принято в предыдущий период</t>
+  </si>
+  <si>
+    <t>Количеcтво принято</t>
+  </si>
 </sst>
 </file>
 
@@ -1420,6 +1463,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1433,12 +1482,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1753,17 +1796,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2597,16 +2640,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3047,16 +3090,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3484,16 +3527,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3889,8 +3932,8 @@
   </sheetPr>
   <dimension ref="A2:K96"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3909,18 +3952,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3944,11 +3987,11 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
@@ -5066,7 +5109,7 @@
   <dimension ref="A2:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5085,18 +5128,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -5120,11 +5163,11 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
@@ -5360,15 +5403,15 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K17"/>
+  <dimension ref="A2:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -5382,18 +5425,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>313</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -5445,7 +5488,7 @@
       <c r="F5" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="62" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="41"/>
@@ -5453,16 +5496,16 @@
       <c r="J5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="K5" s="63" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>13</v>
@@ -5473,8 +5516,10 @@
       <c r="E6" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="67" t="s">
+      <c r="F6" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G6" s="62" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="47"/>
@@ -5482,18 +5527,18 @@
       <c r="J6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="68" t="s">
+      <c r="K6" s="63" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>314</v>
+        <v>130</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="19" t="s">
@@ -5502,8 +5547,10 @@
       <c r="E7" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="67" t="s">
+      <c r="F7" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="62" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="47"/>
@@ -5511,13 +5558,13 @@
       <c r="J7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="68" t="s">
+      <c r="K7" s="63" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>130</v>
@@ -5531,123 +5578,462 @@
       <c r="E8" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="67" t="s">
+      <c r="F8" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="G8" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51" t="s">
+      <c r="H8" s="47"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="68" t="s">
+      <c r="K8" s="63" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="39"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="9" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="47"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="47"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="G14" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="47"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="39"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="39"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="39"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="39"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="39"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="str">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="39"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="str">
         <f>"`"&amp;A5&amp;"` "&amp;B5&amp;" NOT NULL AUTO_INCREMENT,"</f>
         <v>`id` int NOT NULL AUTO_INCREMENT,</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="39"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="str">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="39"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="str">
+        <f>"`"&amp;A6&amp;"` "&amp;B6&amp;" "&amp;E6&amp;","</f>
+        <v>`number` int NOT NULL,</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="39"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="str">
         <f>"`"&amp;A7&amp;"` "&amp;B7&amp;" "&amp;E7&amp;","</f>
+        <v>`date` date NOT NULL,</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="39"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="str">
+        <f>"`"&amp;A8&amp;"` "&amp;B8&amp;" "&amp;E8&amp;","</f>
         <v>`date_start` date NOT NULL,</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="39"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="str">
-        <f>"`"&amp;A8&amp;"` "&amp;B8&amp;" "&amp;E8&amp;","</f>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="39"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="str">
+        <f t="shared" ref="A24:A30" si="0">"`"&amp;A9&amp;"` "&amp;B9&amp;" "&amp;E9&amp;","</f>
         <v>`date_finish` date NOT NULL,</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="39"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="39"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>`on_schedule` int NOT NULL,</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="39"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>`off_schedule` int NOT NULL,</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="39"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>`not_presented` int NOT NULL,</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="39"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>`not_accepted_for_various_reasons` int NOT NULL,</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="39"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>`accepted_in_the_previous_period` int NOT NULL,</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="39"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>`accepted` int NOT NULL,</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="39"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5657,6 +6043,7 @@
     <mergeCell ref="H4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5687,18 +6074,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -5722,11 +6109,11 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
@@ -6008,16 +6395,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16384" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
     </row>
     <row r="4" spans="1:16384" s="23" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -39226,16 +39613,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -39657,16 +40044,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -39846,17 +40233,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -40256,16 +40643,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -40663,16 +41050,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -41062,16 +41449,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -41720,16 +42107,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">

--- a/data/Карта таблиц.xlsx
+++ b/data/Карта таблиц.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="846" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="846" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="basic_estimate" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="329">
   <si>
     <t>Поле</t>
   </si>
@@ -929,13 +929,7 @@
     <t>varchar(100)</t>
   </si>
   <si>
-    <t>number_report</t>
-  </si>
-  <si>
     <t>Номер отчёта</t>
-  </si>
-  <si>
-    <t>date_report</t>
   </si>
   <si>
     <t>Дата отчёта</t>
@@ -1074,6 +1068,9 @@
   </si>
   <si>
     <t>Количеcтво принято</t>
+  </si>
+  <si>
+    <t>id отчёта</t>
   </si>
 </sst>
 </file>
@@ -3930,10 +3927,10 @@
     <tabColor theme="9" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K96"/>
+  <dimension ref="A2:K95"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4289,7 +4286,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>169</v>
@@ -4530,7 +4527,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>281</v>
+        <v>119</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>10</v>
@@ -4545,7 +4542,7 @@
         <v>254</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="47"/>
@@ -4555,10 +4552,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>283</v>
+        <v>72</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>13</v>
@@ -4567,46 +4564,35 @@
         <v>13</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="48"/>
+        <v>74</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="H24" s="49"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="51"/>
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="9"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="39"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="4" t="s">
+        <v>214</v>
+      </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4618,9 +4604,7 @@
       <c r="J26" s="39"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>214</v>
-      </c>
+      <c r="A27" s="4"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4632,7 +4616,9 @@
       <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="24" t="s">
+        <v>252</v>
+      </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4644,8 +4630,9 @@
       <c r="J28" s="39"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>252</v>
+      <c r="A29" s="24" t="str">
+        <f>"`"&amp;A5&amp;"` "&amp;B5&amp;" NOT NULL AUTO_INCREMENT,"</f>
+        <v>`id` int NOT NULL AUTO_INCREMENT,</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -4658,9 +4645,9 @@
       <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="str">
-        <f>"`"&amp;A5&amp;"` "&amp;B5&amp;" NOT NULL AUTO_INCREMENT,"</f>
-        <v>`id` int NOT NULL AUTO_INCREMENT,</v>
+      <c r="A30" s="4" t="str">
+        <f>"`"&amp;A6&amp;"` "&amp;B6&amp;" "&amp;E6&amp;","</f>
+        <v>`call_Customer` int NULL,</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4674,8 +4661,8 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
-        <f t="shared" ref="A31:A50" si="0">"`"&amp;A6&amp;"` "&amp;B6&amp;" "&amp;E6&amp;","</f>
-        <v>`call_Customer` int NULL,</v>
+        <f>"`"&amp;A7&amp;"` "&amp;B7&amp;" "&amp;E7&amp;","</f>
+        <v>`number_the_Customer` int NULL,</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4689,8 +4676,8 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`number_the_Customer` int NULL,</v>
+        <f>"`"&amp;A8&amp;"` "&amp;B8&amp;" "&amp;E8&amp;","</f>
+        <v>`number_in_b_estimate` varchar(32) NULL,</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4704,8 +4691,8 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`number_in_b_estimate` varchar(32) NULL,</v>
+        <f>"`"&amp;A9&amp;"` "&amp;B9&amp;" "&amp;E9&amp;","</f>
+        <v>`number_in_order` int NOT NULL,</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4719,8 +4706,8 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`number_in_order` int NOT NULL,</v>
+        <f>"`"&amp;A10&amp;"` "&amp;B10&amp;" "&amp;E10&amp;","</f>
+        <v>`name_id` int NOT NULL,</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4734,8 +4721,8 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`name_id` int NOT NULL,</v>
+        <f>"`"&amp;A11&amp;"` "&amp;B11&amp;" "&amp;E11&amp;","</f>
+        <v>`dimension` int NULL,</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4749,8 +4736,8 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`dimension` int NULL,</v>
+        <f>"`"&amp;A12&amp;"` "&amp;B12&amp;" "&amp;E12&amp;","</f>
+        <v>`value` float NULL,</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4764,8 +4751,8 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`value` float NULL,</v>
+        <f>"`"&amp;A13&amp;"` "&amp;B13&amp;" "&amp;E13&amp;","</f>
+        <v>`code` varchar(255) NOT NULL,</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4779,299 +4766,289 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`code` varchar(255) NOT NULL,</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="39"/>
+        <f>"`"&amp;A14&amp;"` "&amp;B14&amp;" "&amp;E14&amp;","</f>
+        <v>`date_of_the_call` date NULL,</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`date_of_the_call` date NOT NULL,</v>
+        <f>"`"&amp;A15&amp;"` "&amp;B15&amp;" "&amp;E15&amp;","</f>
+        <v>`actual_date` date NULL,</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`actual_date` date NULL,</v>
+        <f>"`"&amp;A16&amp;"` "&amp;B16&amp;" "&amp;E16&amp;","</f>
+        <v>`id_contractor` int NOT NULL,</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`id_contractor` int NOT NULL,</v>
+        <f>"`"&amp;A17&amp;"` "&amp;B17&amp;" "&amp;E17&amp;","</f>
+        <v>`id_actual_contractor` int NOT NULL,</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`id_actual_contractor` int NOT NULL,</v>
+        <f>"`"&amp;A18&amp;"` "&amp;B18&amp;" "&amp;E18&amp;","</f>
+        <v>`id_CC_engineer` int NOT NULL,</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`id_CC_engineer` int NOT NULL,</v>
+        <f>"`"&amp;A19&amp;"` "&amp;B19&amp;" "&amp;E19&amp;","</f>
+        <v>`result` tinyint(1) NOT NULL,</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`result` tinyint(1) NOT NULL,</v>
+        <f>"`"&amp;A20&amp;"` "&amp;B20&amp;" "&amp;E20&amp;","</f>
+        <v>`axes` varchar(24) NOT NULL,</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`axes` varchar(24) NOT NULL,</v>
+        <f>"`"&amp;A21&amp;"` "&amp;B21&amp;" "&amp;E21&amp;","</f>
+        <v>`room` varchar(24) NULL,</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`room` varchar(24) NULL,</v>
+        <f>"`"&amp;A22&amp;"` "&amp;B22&amp;" "&amp;E22&amp;","</f>
+        <v>`floor` varchar(36) NOT NULL,</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`floor` varchar(36) NOT NULL,</v>
+        <f>"`"&amp;A23&amp;"` "&amp;B23&amp;" "&amp;E23&amp;","</f>
+        <v>`number` int NOT NULL,</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`number_report` int NOT NULL,</v>
+      <c r="A48" s="4" t="e">
+        <f>"`"&amp;#REF!&amp;"` "&amp;#REF!&amp;" "&amp;#REF!&amp;","</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`date_report` int NOT NULL,</v>
+        <f t="shared" ref="A49" si="0">"`"&amp;A24&amp;"` "&amp;B24&amp;" "&amp;E24&amp;","</f>
+        <v>`note` varchar(255) NULL,</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`note` varchar(255) NULL,</v>
+      <c r="A50" s="4" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>255</v>
+      <c r="A51" t="str">
+        <f>"FOREIGN KEY (`"&amp;A10&amp;"`) REFERENCES `"&amp;H10&amp;"` (`"&amp;J10&amp;"`),"</f>
+        <v>FOREIGN KEY (`name_id`) REFERENCES `name_of_works_and_materials` (`id`),</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f>"FOREIGN KEY (`"&amp;A10&amp;"`) REFERENCES `"&amp;H10&amp;"` (`"&amp;J10&amp;"`),"</f>
-        <v>FOREIGN KEY (`name_id`) REFERENCES `name_of_works_and_materials` (`id`),</v>
+        <f>"FOREIGN KEY (`"&amp;A11&amp;"`) REFERENCES `"&amp;H11&amp;"` (`"&amp;J11&amp;"`),"</f>
+        <v>FOREIGN KEY (`dimension`) REFERENCES `dimension` (`id`),</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f>"FOREIGN KEY (`"&amp;A11&amp;"`) REFERENCES `"&amp;H11&amp;"` (`"&amp;J11&amp;"`),"</f>
-        <v>FOREIGN KEY (`dimension`) REFERENCES `dimension` (`id`),</v>
+        <f>"FOREIGN KEY (`"&amp;A16&amp;"`) REFERENCES `"&amp;H16&amp;"` (`"&amp;J16&amp;"`),"</f>
+        <v>FOREIGN KEY (`id_contractor`) REFERENCES `people` (`id`),</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f>"FOREIGN KEY (`"&amp;A16&amp;"`) REFERENCES `"&amp;H16&amp;"` (`"&amp;J16&amp;"`),"</f>
-        <v>FOREIGN KEY (`id_contractor`) REFERENCES `people` (`id`),</v>
+        <f>"FOREIGN KEY (`"&amp;A17&amp;"`) REFERENCES `"&amp;H17&amp;"` (`"&amp;J17&amp;"`),"</f>
+        <v>FOREIGN KEY (`id_actual_contractor`) REFERENCES `people` (`id`),</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f>"FOREIGN KEY (`"&amp;A17&amp;"`) REFERENCES `"&amp;H17&amp;"` (`"&amp;J17&amp;"`),"</f>
-        <v>FOREIGN KEY (`id_actual_contractor`) REFERENCES `people` (`id`),</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="str">
         <f>"FOREIGN KEY (`"&amp;A18&amp;"`) REFERENCES `"&amp;H18&amp;"` (`"&amp;J18&amp;"`)"</f>
         <v>FOREIGN KEY (`id_CC_engineer`) REFERENCES `people` (`id`)</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>188</v>
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>290</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>200</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>228</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>299</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>234</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>302</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>304</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
@@ -5081,16 +5058,11 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5405,8 +5377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5426,7 +5398,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
@@ -5517,7 +5489,7 @@
         <v>254</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G6" s="62" t="s">
         <v>13</v>
@@ -5548,7 +5520,7 @@
         <v>254</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G7" s="62" t="s">
         <v>13</v>
@@ -5564,7 +5536,7 @@
     </row>
     <row r="8" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>130</v>
@@ -5579,7 +5551,7 @@
         <v>254</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G8" s="62" t="s">
         <v>13</v>
@@ -5595,7 +5567,7 @@
     </row>
     <row r="9" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>130</v>
@@ -5610,7 +5582,7 @@
         <v>254</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G9" s="62" t="s">
         <v>13</v>
@@ -5626,7 +5598,7 @@
     </row>
     <row r="10" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>10</v>
@@ -5641,7 +5613,7 @@
         <v>254</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G10" s="62" t="s">
         <v>13</v>
@@ -5657,7 +5629,7 @@
     </row>
     <row r="11" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>10</v>
@@ -5672,7 +5644,7 @@
         <v>254</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G11" s="62" t="s">
         <v>13</v>
@@ -5688,7 +5660,7 @@
     </row>
     <row r="12" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -5703,7 +5675,7 @@
         <v>254</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G12" s="62" t="s">
         <v>13</v>
@@ -5719,7 +5691,7 @@
     </row>
     <row r="13" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>10</v>
@@ -5734,7 +5706,7 @@
         <v>254</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G13" s="62" t="s">
         <v>13</v>
@@ -5750,7 +5722,7 @@
     </row>
     <row r="14" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>10</v>
@@ -5765,7 +5737,7 @@
         <v>254</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G14" s="62" t="s">
         <v>13</v>
@@ -5781,7 +5753,7 @@
     </row>
     <row r="15" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>10</v>
@@ -5796,7 +5768,7 @@
         <v>254</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G15" s="62" t="s">
         <v>13</v>

--- a/data/Карта таблиц.xlsx
+++ b/data/Карта таблиц.xlsx
@@ -33,7 +33,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">basic_estimate!$A$4:$I$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="329">
   <si>
     <t>Поле</t>
   </si>
@@ -626,12 +625,6 @@
     <t>result</t>
   </si>
   <si>
-    <t>Результат предъявления работ:
-1 - Принято
-2 - Не принято
-3 - Не предъявлено</t>
-  </si>
-  <si>
     <t>axes</t>
   </si>
   <si>
@@ -1072,6 +1065,13 @@
   <si>
     <t>id отчёта</t>
   </si>
+  <si>
+    <t>Результат предъявления работ:
+1 - Принято
+2 - Не принято
+3 - Не предъявлено
+4 - Принято в предыдущий период</t>
+  </si>
 </sst>
 </file>
 
@@ -1283,7 +1283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1460,12 +1460,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1489,6 +1483,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1793,17 +1811,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2319,7 +2337,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2341,7 +2359,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2353,7 +2371,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2365,7 +2383,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2377,7 +2395,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2389,7 +2407,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2401,7 +2419,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2413,7 +2431,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2425,7 +2443,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2437,7 +2455,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2449,7 +2467,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2461,7 +2479,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2473,7 +2491,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2485,7 +2503,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2497,7 +2515,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2509,7 +2527,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2521,7 +2539,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2533,7 +2551,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2545,7 +2563,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2557,7 +2575,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2569,37 +2587,37 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2637,16 +2655,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2778,7 +2796,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -2802,7 +2820,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -2815,7 +2833,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -2828,7 +2846,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2840,7 +2858,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2852,7 +2870,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2864,7 +2882,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3087,16 +3105,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3284,7 +3302,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3524,16 +3542,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3703,7 +3721,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3929,8 +3947,8 @@
   </sheetPr>
   <dimension ref="A2:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3949,18 +3967,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3984,11 +4002,11 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
@@ -4007,7 +4025,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>121</v>
@@ -4131,7 +4149,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>165</v>
@@ -4162,7 +4180,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>25</v>
@@ -4171,10 +4189,10 @@
         <v>64</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J10" s="48" t="s">
         <v>4</v>
@@ -4209,7 +4227,7 @@
         <v>156</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J11" s="48" t="s">
         <v>4</v>
@@ -4259,7 +4277,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>167</v>
@@ -4340,7 +4358,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>175</v>
@@ -4349,10 +4367,10 @@
         <v>173</v>
       </c>
       <c r="H16" s="47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J16" s="48" t="s">
         <v>4</v>
@@ -4373,7 +4391,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>176</v>
@@ -4382,10 +4400,10 @@
         <v>40</v>
       </c>
       <c r="H17" s="47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J17" s="48" t="s">
         <v>4</v>
@@ -4406,7 +4424,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>177</v>
@@ -4415,22 +4433,22 @@
         <v>174</v>
       </c>
       <c r="H18" s="47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J18" s="48" t="s">
         <v>4</v>
       </c>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>180</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>13</v>
@@ -4439,12 +4457,14 @@
         <v>13</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="G19" s="11"/>
+        <v>328</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>250</v>
+      </c>
       <c r="H19" s="47"/>
       <c r="I19" s="34"/>
       <c r="J19" s="48"/>
@@ -4452,7 +4472,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>100</v>
@@ -4464,10 +4484,10 @@
         <v>13</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="47"/>
@@ -4477,7 +4497,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>100</v>
@@ -4492,7 +4512,7 @@
         <v>18</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="47"/>
@@ -4502,10 +4522,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>13</v>
@@ -4514,10 +4534,10 @@
         <v>13</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="47"/>
@@ -4539,10 +4559,10 @@
         <v>13</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="47"/>
@@ -4570,7 +4590,7 @@
         <v>74</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H24" s="49"/>
       <c r="I24" s="50"/>
@@ -4591,7 +4611,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -4617,7 +4637,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -4820,7 +4840,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f>"`"&amp;A23&amp;"` "&amp;B23&amp;" "&amp;E23&amp;","</f>
+        <f t="shared" ref="A47" si="0">"`"&amp;A23&amp;"` "&amp;B23&amp;" "&amp;E23&amp;","</f>
         <v>`number` int NOT NULL,</v>
       </c>
     </row>
@@ -4832,13 +4852,13 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
-        <f t="shared" ref="A49" si="0">"`"&amp;A24&amp;"` "&amp;B24&amp;" "&amp;E24&amp;","</f>
+        <f t="shared" ref="A49" si="1">"`"&amp;A24&amp;"` "&amp;B24&amp;" "&amp;E24&amp;","</f>
         <v>`note` varchar(255) NULL,</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -4873,197 +4893,197 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -5100,18 +5120,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
-        <v>268</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="A2" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -5135,11 +5155,11 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
@@ -5158,7 +5178,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>121</v>
@@ -5177,7 +5197,7 @@
     </row>
     <row r="6" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>10</v>
@@ -5198,10 +5218,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I6" s="54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J6" s="55" t="s">
         <v>4</v>
@@ -5212,7 +5232,7 @@
     </row>
     <row r="7" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>10</v>
@@ -5236,7 +5256,7 @@
         <v>166</v>
       </c>
       <c r="I7" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J7" s="58" t="s">
         <v>4</v>
@@ -5259,7 +5279,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -5285,7 +5305,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -5344,7 +5364,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5361,7 +5381,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -5378,7 +5398,7 @@
   <dimension ref="A2:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A10" sqref="A10:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5397,18 +5417,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
-        <v>311</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="A2" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -5432,353 +5452,353 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
       <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43" t="s">
+      <c r="H5" s="71"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="63" t="s">
+      <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="48" t="s">
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="63" t="s">
+      <c r="K7" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+    <row r="8" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="G7" s="62" t="s">
+      <c r="E9" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="G9" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="48" t="s">
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="63" t="s">
+      <c r="K9" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="19" t="s">
+    <row r="10" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="G8" s="62" t="s">
+      <c r="E10" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="G10" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="48" t="s">
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="63" t="s">
+      <c r="K10" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="19" t="s">
+    <row r="11" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="G9" s="62" t="s">
+      <c r="E11" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G11" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="48" t="s">
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="63" t="s">
+      <c r="K11" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="B10" s="9" t="s">
+    <row r="12" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="G10" s="62" t="s">
+      <c r="E12" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G12" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="48" t="s">
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="63" t="s">
+      <c r="K12" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="B11" s="9" t="s">
+    <row r="13" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="G11" s="62" t="s">
+      <c r="E13" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="G13" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="48" t="s">
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="63" t="s">
+      <c r="K13" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="B12" s="9" t="s">
+    <row r="14" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="G12" s="62" t="s">
+      <c r="E14" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="48" t="s">
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="63" t="s">
+      <c r="K14" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="B13" s="9" t="s">
+    <row r="15" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="G13" s="62" t="s">
+      <c r="E15" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="G15" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="48" t="s">
+      <c r="H15" s="75"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="G14" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="G15" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="63" t="s">
+      <c r="K15" s="74" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5796,7 +5816,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -5822,7 +5842,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6001,12 +6021,12 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -6046,18 +6066,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="A2" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -6081,11 +6101,11 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
@@ -6104,7 +6124,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>121</v>
@@ -6126,7 +6146,7 @@
         <v>166</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>13</v>
@@ -6135,10 +6155,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>13</v>
@@ -6169,7 +6189,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="53"/>
@@ -6183,7 +6203,7 @@
     </row>
     <row r="8" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>150</v>
@@ -6198,7 +6218,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="56"/>
@@ -6224,7 +6244,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6250,7 +6270,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6324,12 +6344,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -6367,16 +6387,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16384" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="4" spans="1:16384" s="23" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -6506,7 +6526,7 @@
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -39280,7 +39300,7 @@
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -39292,7 +39312,7 @@
     </row>
     <row r="12" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -39304,7 +39324,7 @@
     </row>
     <row r="13" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -39316,7 +39336,7 @@
     </row>
     <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -39328,7 +39348,7 @@
     </row>
     <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -39340,7 +39360,7 @@
     </row>
     <row r="16" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -39352,7 +39372,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -39585,16 +39605,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -39719,7 +39739,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -39741,7 +39761,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -39753,7 +39773,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -39765,7 +39785,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -39777,7 +39797,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -39789,7 +39809,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -39801,7 +39821,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -39813,7 +39833,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -40016,16 +40036,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -40122,7 +40142,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -40144,32 +40164,32 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -40205,17 +40225,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -40310,7 +40330,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -40332,7 +40352,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -40344,7 +40364,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -40356,7 +40376,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -40368,7 +40388,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -40380,7 +40400,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -40392,7 +40412,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -40615,16 +40635,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -40719,7 +40739,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -40741,7 +40761,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -40753,7 +40773,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -40765,7 +40785,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -40777,7 +40797,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -40789,7 +40809,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -41022,16 +41042,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -41126,7 +41146,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -41148,7 +41168,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -41160,7 +41180,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -41172,7 +41192,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -41184,7 +41204,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -41196,7 +41216,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -41208,7 +41228,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -41421,16 +41441,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -41769,7 +41789,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -41791,7 +41811,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -41803,7 +41823,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -41815,7 +41835,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -41827,7 +41847,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -41839,7 +41859,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -41851,7 +41871,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -41863,7 +41883,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -41875,7 +41895,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -41887,7 +41907,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -41899,7 +41919,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -41911,7 +41931,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -41923,7 +41943,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -41935,7 +41955,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -42079,16 +42099,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -42398,7 +42418,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -42422,7 +42442,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -42435,7 +42455,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -42448,7 +42468,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -42460,7 +42480,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -42472,7 +42492,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -42484,7 +42504,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -42496,7 +42516,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -42508,7 +42528,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -42520,7 +42540,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -42532,7 +42552,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -42544,7 +42564,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -42556,7 +42576,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -42568,7 +42588,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -42580,7 +42600,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>

--- a/data/Карта таблиц.xlsx
+++ b/data/Карта таблиц.xlsx
@@ -33,6 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">basic_estimate!$A$4:$I$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="330">
   <si>
     <t>Поле</t>
   </si>
@@ -1072,6 +1073,9 @@
 3 - Не предъявлено
 4 - Принято в предыдущий период</t>
   </si>
+  <si>
+    <t>Количество фактически принятых работ</t>
+  </si>
 </sst>
 </file>
 
@@ -1460,6 +1464,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1483,30 +1511,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1811,17 +1815,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2655,16 +2659,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3105,16 +3109,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3542,16 +3546,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3947,8 +3951,8 @@
   </sheetPr>
   <dimension ref="A2:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3967,18 +3971,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -4002,11 +4006,11 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
@@ -4253,7 +4257,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>35</v>
+        <v>329</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>50</v>
@@ -4666,7 +4670,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
-        <f>"`"&amp;A6&amp;"` "&amp;B6&amp;" "&amp;E6&amp;","</f>
+        <f t="shared" ref="A30:A46" si="0">"`"&amp;A6&amp;"` "&amp;B6&amp;" "&amp;E6&amp;","</f>
         <v>`call_Customer` int NULL,</v>
       </c>
       <c r="B30" s="2"/>
@@ -4681,7 +4685,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
-        <f>"`"&amp;A7&amp;"` "&amp;B7&amp;" "&amp;E7&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`number_the_Customer` int NULL,</v>
       </c>
       <c r="B31" s="2"/>
@@ -4696,7 +4700,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
-        <f>"`"&amp;A8&amp;"` "&amp;B8&amp;" "&amp;E8&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`number_in_b_estimate` varchar(32) NULL,</v>
       </c>
       <c r="B32" s="2"/>
@@ -4711,7 +4715,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
-        <f>"`"&amp;A9&amp;"` "&amp;B9&amp;" "&amp;E9&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`number_in_order` int NOT NULL,</v>
       </c>
       <c r="B33" s="2"/>
@@ -4726,7 +4730,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
-        <f>"`"&amp;A10&amp;"` "&amp;B10&amp;" "&amp;E10&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`name_id` int NOT NULL,</v>
       </c>
       <c r="B34" s="2"/>
@@ -4741,7 +4745,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f>"`"&amp;A11&amp;"` "&amp;B11&amp;" "&amp;E11&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`dimension` int NULL,</v>
       </c>
       <c r="B35" s="2"/>
@@ -4756,7 +4760,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
-        <f>"`"&amp;A12&amp;"` "&amp;B12&amp;" "&amp;E12&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`value` float NULL,</v>
       </c>
       <c r="B36" s="2"/>
@@ -4771,7 +4775,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
-        <f>"`"&amp;A13&amp;"` "&amp;B13&amp;" "&amp;E13&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`code` varchar(255) NOT NULL,</v>
       </c>
       <c r="B37" s="2"/>
@@ -4786,61 +4790,61 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
-        <f>"`"&amp;A14&amp;"` "&amp;B14&amp;" "&amp;E14&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`date_of_the_call` date NULL,</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
-        <f>"`"&amp;A15&amp;"` "&amp;B15&amp;" "&amp;E15&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`actual_date` date NULL,</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
-        <f>"`"&amp;A16&amp;"` "&amp;B16&amp;" "&amp;E16&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`id_contractor` int NOT NULL,</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
-        <f>"`"&amp;A17&amp;"` "&amp;B17&amp;" "&amp;E17&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`id_actual_contractor` int NOT NULL,</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
-        <f>"`"&amp;A18&amp;"` "&amp;B18&amp;" "&amp;E18&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`id_CC_engineer` int NOT NULL,</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
-        <f>"`"&amp;A19&amp;"` "&amp;B19&amp;" "&amp;E19&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`result` tinyint(1) NOT NULL,</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
-        <f>"`"&amp;A20&amp;"` "&amp;B20&amp;" "&amp;E20&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`axes` varchar(24) NOT NULL,</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
-        <f>"`"&amp;A21&amp;"` "&amp;B21&amp;" "&amp;E21&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`room` varchar(24) NULL,</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
-        <f>"`"&amp;A22&amp;"` "&amp;B22&amp;" "&amp;E22&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`floor` varchar(36) NOT NULL,</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f t="shared" ref="A47" si="0">"`"&amp;A23&amp;"` "&amp;B23&amp;" "&amp;E23&amp;","</f>
+        <f>"`"&amp;A23&amp;"` "&amp;B23&amp;" "&amp;E23&amp;","</f>
         <v>`number` int NOT NULL,</v>
       </c>
     </row>
@@ -4852,7 +4856,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
-        <f t="shared" ref="A49" si="1">"`"&amp;A24&amp;"` "&amp;B24&amp;" "&amp;E24&amp;","</f>
+        <f>"`"&amp;A24&amp;"` "&amp;B24&amp;" "&amp;E24&amp;","</f>
         <v>`note` varchar(255) NULL,</v>
       </c>
     </row>
@@ -5120,18 +5124,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="70" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -5155,11 +5159,11 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
@@ -5417,18 +5421,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="70" t="s">
         <v>310</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -5452,11 +5456,11 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="77"/>
       <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
@@ -5480,15 +5484,15 @@
       <c r="F5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73" t="s">
+      <c r="H5" s="63"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="74" t="s">
+      <c r="K5" s="66" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5511,7 +5515,7 @@
       <c r="F6" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="62" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="44"/>
@@ -5519,7 +5523,7 @@
       <c r="J6" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="74" t="s">
+      <c r="K6" s="66" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5542,7 +5546,7 @@
       <c r="F7" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="G7" s="70" t="s">
+      <c r="G7" s="62" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="44"/>
@@ -5550,7 +5554,7 @@
       <c r="J7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="74" t="s">
+      <c r="K7" s="66" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5573,7 +5577,7 @@
       <c r="F8" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="G8" s="70" t="s">
+      <c r="G8" s="62" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="44"/>
@@ -5581,7 +5585,7 @@
       <c r="J8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="74" t="s">
+      <c r="K8" s="66" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5604,7 +5608,7 @@
       <c r="F9" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="G9" s="70" t="s">
+      <c r="G9" s="62" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="44"/>
@@ -5612,7 +5616,7 @@
       <c r="J9" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="74" t="s">
+      <c r="K9" s="66" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5635,7 +5639,7 @@
       <c r="F10" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="62" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="44"/>
@@ -5643,7 +5647,7 @@
       <c r="J10" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="74" t="s">
+      <c r="K10" s="66" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5666,7 +5670,7 @@
       <c r="F11" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="62" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="44"/>
@@ -5674,7 +5678,7 @@
       <c r="J11" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="74" t="s">
+      <c r="K11" s="66" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5697,7 +5701,7 @@
       <c r="F12" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="G12" s="70" t="s">
+      <c r="G12" s="62" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="44"/>
@@ -5705,7 +5709,7 @@
       <c r="J12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="74" t="s">
+      <c r="K12" s="66" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5728,7 +5732,7 @@
       <c r="F13" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="G13" s="70" t="s">
+      <c r="G13" s="62" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="44"/>
@@ -5736,7 +5740,7 @@
       <c r="J13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="74" t="s">
+      <c r="K13" s="66" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5759,7 +5763,7 @@
       <c r="F14" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="G14" s="70" t="s">
+      <c r="G14" s="62" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="44"/>
@@ -5767,7 +5771,7 @@
       <c r="J14" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="74" t="s">
+      <c r="K14" s="66" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5790,15 +5794,15 @@
       <c r="F15" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="G15" s="70" t="s">
+      <c r="G15" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="77" t="s">
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="74" t="s">
+      <c r="K15" s="66" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6066,18 +6070,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="70" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -6101,11 +6105,11 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
@@ -6387,16 +6391,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16384" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="4" spans="1:16384" s="23" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -39605,16 +39609,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -40036,16 +40040,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -40225,17 +40229,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -40635,16 +40639,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -41042,16 +41046,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -41441,16 +41445,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -42099,16 +42103,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">

--- a/data/Карта таблиц.xlsx
+++ b/data/Карта таблиц.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="846" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="846" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="basic_estimate" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">basic_estimate!$A$4:$I$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="336">
   <si>
     <t>Поле</t>
   </si>
@@ -1076,6 +1075,24 @@
   <si>
     <t>Количество фактически принятых работ</t>
   </si>
+  <si>
+    <t>id_contractor_company</t>
+  </si>
+  <si>
+    <t>id_actual_contractor_company</t>
+  </si>
+  <si>
+    <t>ID компании субподрядчика на момент производства работ</t>
+  </si>
+  <si>
+    <t>ID компании фактического исполнителя на момент производства работ</t>
+  </si>
+  <si>
+    <t>contractor</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
 </sst>
 </file>
 
@@ -3949,15 +3966,15 @@
     <tabColor theme="9" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K95"/>
+  <dimension ref="A2:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -4381,9 +4398,9 @@
       </c>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>178</v>
+        <v>330</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>10</v>
@@ -4398,13 +4415,13 @@
         <v>253</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>176</v>
+        <v>332</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="H17" s="47" t="s">
-        <v>257</v>
+        <v>334</v>
       </c>
       <c r="I17" s="34" t="s">
         <v>255</v>
@@ -4414,9 +4431,9 @@
       </c>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>10</v>
@@ -4431,10 +4448,10 @@
         <v>253</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="H18" s="47" t="s">
         <v>257</v>
@@ -4447,12 +4464,12 @@
       </c>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>180</v>
+        <v>331</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>258</v>
+        <v>10</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>13</v>
@@ -4464,22 +4481,28 @@
         <v>253</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="48"/>
+        <v>40</v>
+      </c>
+      <c r="H19" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>4</v>
+      </c>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>13</v>
@@ -4491,20 +4514,28 @@
         <v>253</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="48"/>
+        <v>177</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>4</v>
+      </c>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>13</v>
@@ -4513,12 +4544,14 @@
         <v>13</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="G21" s="11"/>
+        <v>328</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>250</v>
+      </c>
       <c r="H21" s="47"/>
       <c r="I21" s="34"/>
       <c r="J21" s="48"/>
@@ -4526,10 +4559,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>249</v>
+        <v>100</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>13</v>
@@ -4541,7 +4574,7 @@
         <v>253</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="47"/>
@@ -4551,10 +4584,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>13</v>
@@ -4563,10 +4596,10 @@
         <v>13</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>327</v>
+        <v>184</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="47"/>
@@ -4576,10 +4609,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>73</v>
+        <v>249</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>13</v>
@@ -4588,44 +4621,74 @@
         <v>13</v>
       </c>
       <c r="E24" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="J25" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G26" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="39"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="39"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
@@ -4640,8 +4703,8 @@
       <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>251</v>
+      <c r="A28" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -4654,10 +4717,7 @@
       <c r="J28" s="39"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="str">
-        <f>"`"&amp;A5&amp;"` "&amp;B5&amp;" NOT NULL AUTO_INCREMENT,"</f>
-        <v>`id` int NOT NULL AUTO_INCREMENT,</v>
-      </c>
+      <c r="A29" s="4"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4669,9 +4729,8 @@
       <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="str">
-        <f t="shared" ref="A30:A46" si="0">"`"&amp;A6&amp;"` "&amp;B6&amp;" "&amp;E6&amp;","</f>
-        <v>`call_Customer` int NULL,</v>
+      <c r="A30" s="24" t="s">
+        <v>251</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4684,9 +4743,9 @@
       <c r="J30" s="39"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`number_the_Customer` int NULL,</v>
+      <c r="A31" s="24" t="str">
+        <f>"`"&amp;A5&amp;"` "&amp;B5&amp;" NOT NULL AUTO_INCREMENT,"</f>
+        <v>`id` int NOT NULL AUTO_INCREMENT,</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4700,8 +4759,8 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`number_in_b_estimate` varchar(32) NULL,</v>
+        <f>"`"&amp;A6&amp;"` "&amp;B6&amp;" "&amp;E6&amp;","</f>
+        <v>`call_Customer` int NULL,</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4715,8 +4774,8 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`number_in_order` int NOT NULL,</v>
+        <f>"`"&amp;A7&amp;"` "&amp;B7&amp;" "&amp;E7&amp;","</f>
+        <v>`number_the_Customer` int NULL,</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4730,8 +4789,8 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`name_id` int NOT NULL,</v>
+        <f>"`"&amp;A8&amp;"` "&amp;B8&amp;" "&amp;E8&amp;","</f>
+        <v>`number_in_b_estimate` varchar(32) NULL,</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4745,8 +4804,8 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`dimension` int NULL,</v>
+        <f>"`"&amp;A9&amp;"` "&amp;B9&amp;" "&amp;E9&amp;","</f>
+        <v>`number_in_order` int NOT NULL,</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4760,8 +4819,8 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`value` float NULL,</v>
+        <f>"`"&amp;A10&amp;"` "&amp;B10&amp;" "&amp;E10&amp;","</f>
+        <v>`name_id` int NOT NULL,</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4775,8 +4834,8 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`code` varchar(255) NOT NULL,</v>
+        <f>"`"&amp;A11&amp;"` "&amp;B11&amp;" "&amp;E11&amp;","</f>
+        <v>`dimension` int NULL,</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4790,303 +4849,339 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`date_of_the_call` date NULL,</v>
-      </c>
+        <f>"`"&amp;A12&amp;"` "&amp;B12&amp;" "&amp;E12&amp;","</f>
+        <v>`value` float NULL,</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="39"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`actual_date` date NULL,</v>
-      </c>
+        <f>"`"&amp;A13&amp;"` "&amp;B13&amp;" "&amp;E13&amp;","</f>
+        <v>`code` varchar(255) NOT NULL,</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`id_contractor` int NOT NULL,</v>
+        <f>"`"&amp;A14&amp;"` "&amp;B14&amp;" "&amp;E14&amp;","</f>
+        <v>`date_of_the_call` date NULL,</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>`id_actual_contractor` int NOT NULL,</v>
+        <f t="shared" ref="A41:A52" si="0">"`"&amp;A15&amp;"` "&amp;B15&amp;" "&amp;E15&amp;","</f>
+        <v>`actual_date` date NULL,</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`id_CC_engineer` int NOT NULL,</v>
+        <v>`id_contractor` int NOT NULL,</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`result` tinyint(1) NOT NULL,</v>
+        <v>`id_contractor_company` int NOT NULL,</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`axes` varchar(24) NOT NULL,</v>
+        <v>`id_actual_contractor` int NOT NULL,</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`room` varchar(24) NULL,</v>
+        <v>`id_actual_contractor_company` int NOT NULL,</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>`floor` varchar(36) NOT NULL,</v>
+        <v>`id_CC_engineer` int NOT NULL,</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f>"`"&amp;A23&amp;"` "&amp;B23&amp;" "&amp;E23&amp;","</f>
-        <v>`number` int NOT NULL,</v>
+        <f t="shared" si="0"/>
+        <v>`result` tinyint(1) NOT NULL,</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="e">
-        <f>"`"&amp;#REF!&amp;"` "&amp;#REF!&amp;" "&amp;#REF!&amp;","</f>
-        <v>#REF!</v>
+      <c r="A48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>`axes` varchar(24) NOT NULL,</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
-        <f>"`"&amp;A24&amp;"` "&amp;B24&amp;" "&amp;E24&amp;","</f>
+        <f t="shared" si="0"/>
+        <v>`room` varchar(24) NULL,</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>`floor` varchar(36) NOT NULL,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>`number` int NOT NULL,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>`note` varchar(255) NULL,</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
         <f>"FOREIGN KEY (`"&amp;A10&amp;"`) REFERENCES `"&amp;H10&amp;"` (`"&amp;J10&amp;"`),"</f>
         <v>FOREIGN KEY (`name_id`) REFERENCES `name_of_works_and_materials` (`id`),</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
         <f>"FOREIGN KEY (`"&amp;A11&amp;"`) REFERENCES `"&amp;H11&amp;"` (`"&amp;J11&amp;"`),"</f>
         <v>FOREIGN KEY (`dimension`) REFERENCES `dimension` (`id`),</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
         <f>"FOREIGN KEY (`"&amp;A16&amp;"`) REFERENCES `"&amp;H16&amp;"` (`"&amp;J16&amp;"`),"</f>
         <v>FOREIGN KEY (`id_contractor`) REFERENCES `people` (`id`),</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
-        <f>"FOREIGN KEY (`"&amp;A17&amp;"`) REFERENCES `"&amp;H17&amp;"` (`"&amp;J17&amp;"`),"</f>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f>"FOREIGN KEY (`"&amp;A18&amp;"`) REFERENCES `"&amp;H18&amp;"` (`"&amp;J18&amp;"`),"</f>
         <v>FOREIGN KEY (`id_actual_contractor`) REFERENCES `people` (`id`),</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="str">
-        <f>"FOREIGN KEY (`"&amp;A18&amp;"`) REFERENCES `"&amp;H18&amp;"` (`"&amp;J18&amp;"`)"</f>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f>"FOREIGN KEY (`"&amp;A20&amp;"`) REFERENCES `"&amp;H20&amp;"` (`"&amp;J20&amp;"`)"</f>
         <v>FOREIGN KEY (`id_CC_engineer`) REFERENCES `people` (`id`)</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>286</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>196</v>
+        <v>285</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>198</v>
+        <v>286</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>199</v>
+        <v>287</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>288</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>289</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>290</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>227</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>233</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>204</v>
+        <v>297</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>307</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5096,7 +5191,7 @@
     <mergeCell ref="H4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5402,7 +5497,7 @@
   <dimension ref="A2:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:K15"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6373,7 +6468,7 @@
   <dimension ref="A2:XFD36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Карта таблиц.xlsx
+++ b/data/Карта таблиц.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="846" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="846"/>
   </bookViews>
   <sheets>
     <sheet name="basic_estimate" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">basic_estimate!$A$4:$I$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="337">
   <si>
     <t>Поле</t>
   </si>
@@ -317,9 +318,6 @@
     <t>Подрядчики: contractor</t>
   </si>
   <si>
-    <t>grey</t>
-  </si>
-  <si>
     <t>Основная смета контракта: basic_estimate</t>
   </si>
   <si>
@@ -494,16 +492,6 @@
     <t>code_project</t>
   </si>
   <si>
-    <t>Событие:
-Начало предыдущего периода
-Конец предыдущего периода
-Дата передачи на проверку в АО "ПОЛИТЕХСТРОЙ"
-Дата подписания после проверки
-Дата выдачи замечаний к исполнительной документации
-Дата передачи документации заказчику
-Дата подписания заказчиком</t>
-  </si>
-  <si>
     <t>Замечания к исполнительной документации:critical_remarks</t>
   </si>
   <si>
@@ -545,9 +533,6 @@
   </si>
   <si>
     <t>notes</t>
-  </si>
-  <si>
-    <t>Примечания в формате JSON</t>
   </si>
   <si>
     <t>dimension</t>
@@ -665,9 +650,6 @@
   </si>
   <si>
     <t xml:space="preserve">  `notes` varchar(255) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `grey` tinyint(1) NOT NULL DEFAULT (0),</t>
   </si>
   <si>
     <t xml:space="preserve">  `name_id` int NOT NULL,</t>
@@ -857,24 +839,6 @@
   </si>
   <si>
     <t>tinyint(1)</t>
-  </si>
-  <si>
-    <t>FOREIGN KEY (`chapter_id`) REFERENCES `chapter` (`id`),</t>
-  </si>
-  <si>
-    <t>FOREIGN KEY (`contractor_id`) REFERENCES `contractor` (`id`),</t>
-  </si>
-  <si>
-    <t>FOREIGN KEY (`estimate_id`) REFERENCES `estimate_number` (`id`),</t>
-  </si>
-  <si>
-    <t>FOREIGN KEY (`executive_documentation`) REFERENCES `executive_documentation` (`id`),</t>
-  </si>
-  <si>
-    <t>FOREIGN KEY (`justification_id`) REFERENCES `justification` (`id`),</t>
-  </si>
-  <si>
-    <t>FOREIGN KEY (`name_id`) REFERENCES `name_of_works_and_materials` (`id`)</t>
   </si>
   <si>
     <t>FOREIGN KEY (`id_contractor`) REFERENCES `contractor` (`id`)</t>
@@ -1093,6 +1057,46 @@
   <si>
     <t>report</t>
   </si>
+  <si>
+    <t>Событие:
+1. Начало предыдущего периода
+2. Конец предыдущего периода
+3. Дата передачи на проверку в АО "ПОЛИТЕХСТРОЙ"
+4. Дата подписания после проверки
+5. Дата выдачи замечаний к исполнительной документации
+6. Дата передачи документации заказчику
+7. Дата подписания заказчиком</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `color` varchar(6) NOT NULL DEFAULT (000000),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FOREIGN KEY (`chapter_id`) REFERENCES `chapter` (`id`),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FOREIGN KEY (`contractor_id`) REFERENCES `contractor` (`id`),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FOREIGN KEY (`estimate_id`) REFERENCES `estimate_number` (`id`),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FOREIGN KEY (`executive_documentation`) REFERENCES `executive_documentation` (`id`),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FOREIGN KEY (`justification_id`) REFERENCES `justification` (`id`),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FOREIGN KEY (`name_id`) REFERENCES `name_of_works_and_materials` (`id`)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FOREIGN KEY (`notes`) REFERENCES `notes` (`id`)</t>
+  </si>
+  <si>
+    <t>Ссылка на ID в таблице notes</t>
+  </si>
 </sst>
 </file>
 
@@ -1304,7 +1308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1504,6 +1508,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1812,10 +1819,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A2:M50"/>
+  <dimension ref="A2:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,17 +1839,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
+      <c r="A2" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1890,7 +1897,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>13</v>
@@ -1901,7 +1908,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="70" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -1946,7 +1953,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>46</v>
@@ -1958,7 +1965,7 @@
       <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="70" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -2015,7 +2022,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="70" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -2071,8 +2078,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>154</v>
+      <c r="A12" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>78</v>
@@ -2087,7 +2094,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>155</v>
+        <v>336</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>49</v>
@@ -2101,7 +2108,7 @@
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>86</v>
+        <v>327</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>23</v>
@@ -2116,7 +2123,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>13</v>
@@ -2127,7 +2134,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="70" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -2156,7 +2163,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="70" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -2185,8 +2192,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>156</v>
+      <c r="A16" s="70" t="s">
+        <v>153</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>10</v>
@@ -2207,14 +2214,14 @@
         <v>51</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="70" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -2358,7 +2365,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2380,7 +2387,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2392,7 +2399,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2404,7 +2411,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2416,7 +2423,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2428,7 +2435,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2440,7 +2447,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2452,7 +2459,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2464,7 +2471,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2476,7 +2483,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2488,7 +2495,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>195</v>
+        <v>328</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2500,7 +2507,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2512,7 +2519,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2524,7 +2531,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2536,7 +2543,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2548,7 +2555,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2560,7 +2567,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2572,7 +2579,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2584,7 +2591,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2596,7 +2603,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2608,37 +2615,42 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>261</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>262</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>263</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>264</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>205</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2659,7 +2671,7 @@
   <dimension ref="A2:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,16 +2688,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="A2" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2733,7 +2745,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -2762,7 +2774,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>13</v>
@@ -2776,7 +2788,7 @@
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>37</v>
@@ -2791,7 +2803,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>13</v>
@@ -2817,7 +2829,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -2841,7 +2853,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -2854,7 +2866,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -2867,7 +2879,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2879,7 +2891,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2891,7 +2903,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2903,7 +2915,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3109,7 +3121,7 @@
   <dimension ref="A2:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3126,16 +3138,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="A2" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3183,7 +3195,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -3197,10 +3209,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>13</v>
@@ -3212,7 +3224,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>13</v>
@@ -3226,10 +3238,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>13</v>
@@ -3241,7 +3253,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>13</v>
@@ -3253,12 +3265,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>13</v>
@@ -3270,7 +3282,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>144</v>
+        <v>326</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>13</v>
@@ -3284,7 +3296,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>10</v>
@@ -3299,7 +3311,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>13</v>
@@ -3323,7 +3335,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3546,7 +3558,7 @@
   <dimension ref="A2:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3563,16 +3575,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="A2" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3620,7 +3632,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -3634,7 +3646,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>10</v>
@@ -3649,13 +3661,13 @@
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>13</v>
@@ -3663,7 +3675,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>73</v>
@@ -3678,7 +3690,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>13</v>
@@ -3692,10 +3704,10 @@
     </row>
     <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>13</v>
@@ -3707,7 +3719,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>13</v>
@@ -3742,7 +3754,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3968,7 +3980,7 @@
   </sheetPr>
   <dimension ref="A2:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6:F26"/>
     </sheetView>
   </sheetViews>
@@ -3988,18 +4000,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
+      <c r="A2" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -4023,11 +4035,11 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="75"/>
       <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
@@ -4046,10 +4058,10 @@
         <v>15</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -4065,7 +4077,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>10</v>
@@ -4080,7 +4092,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>13</v>
@@ -4096,7 +4108,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>10</v>
@@ -4111,7 +4123,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>46</v>
@@ -4127,7 +4139,7 @@
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>78</v>
@@ -4142,7 +4154,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>48</v>
@@ -4170,10 +4182,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>49</v>
@@ -4201,7 +4213,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>25</v>
@@ -4210,10 +4222,10 @@
         <v>64</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J10" s="48" t="s">
         <v>4</v>
@@ -4224,7 +4236,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>10</v>
@@ -4245,10 +4257,10 @@
         <v>47</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J11" s="48" t="s">
         <v>4</v>
@@ -4274,7 +4286,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>50</v>
@@ -4286,7 +4298,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>73</v>
@@ -4298,10 +4310,10 @@
         <v>13</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>51</v>
@@ -4313,10 +4325,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>13</v>
@@ -4328,10 +4340,10 @@
         <v>18</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="34"/>
@@ -4340,10 +4352,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>13</v>
@@ -4355,7 +4367,7 @@
         <v>18</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>41</v>
@@ -4367,7 +4379,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>10</v>
@@ -4379,19 +4391,19 @@
         <v>13</v>
       </c>
       <c r="E16" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H16" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>257</v>
-      </c>
       <c r="I16" s="34" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J16" s="48" t="s">
         <v>4</v>
@@ -4400,7 +4412,7 @@
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>10</v>
@@ -4412,19 +4424,19 @@
         <v>13</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H17" s="47" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J17" s="48" t="s">
         <v>4</v>
@@ -4433,7 +4445,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>10</v>
@@ -4445,19 +4457,19 @@
         <v>13</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="47" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J18" s="48" t="s">
         <v>4</v>
@@ -4466,7 +4478,7 @@
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>10</v>
@@ -4478,19 +4490,19 @@
         <v>13</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H19" s="47" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J19" s="48" t="s">
         <v>4</v>
@@ -4499,7 +4511,7 @@
     </row>
     <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>10</v>
@@ -4511,19 +4523,19 @@
         <v>13</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>257</v>
-      </c>
       <c r="I20" s="34" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J20" s="48" t="s">
         <v>4</v>
@@ -4532,10 +4544,10 @@
     </row>
     <row r="21" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>13</v>
@@ -4544,13 +4556,13 @@
         <v>13</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="34"/>
@@ -4559,10 +4571,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>13</v>
@@ -4571,10 +4583,10 @@
         <v>13</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="47"/>
@@ -4584,10 +4596,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>13</v>
@@ -4599,7 +4611,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="47"/>
@@ -4609,10 +4621,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>13</v>
@@ -4621,10 +4633,10 @@
         <v>13</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="47"/>
@@ -4634,7 +4646,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>10</v>
@@ -4646,17 +4658,17 @@
         <v>13</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="47" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="I25" s="34" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J25" s="48" t="s">
         <v>4</v>
@@ -4683,7 +4695,7 @@
         <v>74</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H26" s="49"/>
       <c r="I26" s="50"/>
@@ -4704,7 +4716,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -4730,7 +4742,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4759,7 +4771,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
-        <f>"`"&amp;A6&amp;"` "&amp;B6&amp;" "&amp;E6&amp;","</f>
+        <f t="shared" ref="A32:A40" si="0">"`"&amp;A6&amp;"` "&amp;B6&amp;" "&amp;E6&amp;","</f>
         <v>`call_Customer` int NULL,</v>
       </c>
       <c r="B32" s="2"/>
@@ -4774,7 +4786,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
-        <f>"`"&amp;A7&amp;"` "&amp;B7&amp;" "&amp;E7&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`number_the_Customer` int NULL,</v>
       </c>
       <c r="B33" s="2"/>
@@ -4789,7 +4801,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
-        <f>"`"&amp;A8&amp;"` "&amp;B8&amp;" "&amp;E8&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`number_in_b_estimate` varchar(32) NULL,</v>
       </c>
       <c r="B34" s="2"/>
@@ -4804,7 +4816,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f>"`"&amp;A9&amp;"` "&amp;B9&amp;" "&amp;E9&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`number_in_order` int NOT NULL,</v>
       </c>
       <c r="B35" s="2"/>
@@ -4819,7 +4831,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
-        <f>"`"&amp;A10&amp;"` "&amp;B10&amp;" "&amp;E10&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`name_id` int NOT NULL,</v>
       </c>
       <c r="B36" s="2"/>
@@ -4834,7 +4846,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
-        <f>"`"&amp;A11&amp;"` "&amp;B11&amp;" "&amp;E11&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`dimension` int NULL,</v>
       </c>
       <c r="B37" s="2"/>
@@ -4849,7 +4861,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
-        <f>"`"&amp;A12&amp;"` "&amp;B12&amp;" "&amp;E12&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`value` float NULL,</v>
       </c>
       <c r="B38" s="2"/>
@@ -4864,7 +4876,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
-        <f>"`"&amp;A13&amp;"` "&amp;B13&amp;" "&amp;E13&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`code` varchar(255) NOT NULL,</v>
       </c>
       <c r="B39" s="2"/>
@@ -4879,85 +4891,85 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
-        <f>"`"&amp;A14&amp;"` "&amp;B14&amp;" "&amp;E14&amp;","</f>
+        <f t="shared" si="0"/>
         <v>`date_of_the_call` date NULL,</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
-        <f t="shared" ref="A41:A52" si="0">"`"&amp;A15&amp;"` "&amp;B15&amp;" "&amp;E15&amp;","</f>
+        <f t="shared" ref="A41:A52" si="1">"`"&amp;A15&amp;"` "&amp;B15&amp;" "&amp;E15&amp;","</f>
         <v>`actual_date` date NULL,</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>`id_contractor` int NOT NULL,</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>`id_contractor_company` int NOT NULL,</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>`id_actual_contractor` int NOT NULL,</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>`id_actual_contractor_company` int NOT NULL,</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>`id_CC_engineer` int NOT NULL,</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>`result` tinyint(1) NOT NULL,</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>`axes` varchar(24) NOT NULL,</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>`room` varchar(24) NULL,</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>`floor` varchar(36) NOT NULL,</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>`number` int NOT NULL,</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>`note` varchar(255) NULL,</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
@@ -4992,197 +5004,197 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5219,18 +5231,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>267</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
+      <c r="A2" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -5254,11 +5266,11 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="75"/>
       <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
@@ -5277,10 +5289,10 @@
         <v>15</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -5296,7 +5308,7 @@
     </row>
     <row r="6" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>10</v>
@@ -5311,16 +5323,16 @@
         <v>18</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="I6" s="54" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J6" s="55" t="s">
         <v>4</v>
@@ -5331,7 +5343,7 @@
     </row>
     <row r="7" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>10</v>
@@ -5346,16 +5358,16 @@
         <v>18</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>46</v>
       </c>
       <c r="H7" s="56" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I7" s="57" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J7" s="58" t="s">
         <v>4</v>
@@ -5378,7 +5390,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -5404,7 +5416,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -5463,7 +5475,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5480,7 +5492,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -5516,18 +5528,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>310</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
+      <c r="A2" s="71" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -5551,11 +5563,11 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="75" t="s">
+      <c r="H4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="78"/>
       <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
@@ -5574,10 +5586,10 @@
         <v>15</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="62" t="s">
         <v>13</v>
@@ -5593,7 +5605,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>10</v>
@@ -5605,10 +5617,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="G6" s="62" t="s">
         <v>13</v>
@@ -5624,10 +5636,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>13</v>
@@ -5636,10 +5648,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="G7" s="62" t="s">
         <v>13</v>
@@ -5655,10 +5667,10 @@
     </row>
     <row r="8" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>13</v>
@@ -5667,10 +5679,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G8" s="62" t="s">
         <v>13</v>
@@ -5686,10 +5698,10 @@
     </row>
     <row r="9" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>13</v>
@@ -5698,10 +5710,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G9" s="62" t="s">
         <v>13</v>
@@ -5717,7 +5729,7 @@
     </row>
     <row r="10" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>10</v>
@@ -5729,10 +5741,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="G10" s="62" t="s">
         <v>13</v>
@@ -5748,7 +5760,7 @@
     </row>
     <row r="11" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>10</v>
@@ -5760,10 +5772,10 @@
         <v>13</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G11" s="62" t="s">
         <v>13</v>
@@ -5779,7 +5791,7 @@
     </row>
     <row r="12" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>10</v>
@@ -5791,10 +5803,10 @@
         <v>13</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G12" s="62" t="s">
         <v>13</v>
@@ -5810,7 +5822,7 @@
     </row>
     <row r="13" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>10</v>
@@ -5822,10 +5834,10 @@
         <v>13</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="G13" s="62" t="s">
         <v>13</v>
@@ -5841,7 +5853,7 @@
     </row>
     <row r="14" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>10</v>
@@ -5853,10 +5865,10 @@
         <v>13</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="G14" s="62" t="s">
         <v>13</v>
@@ -5872,7 +5884,7 @@
     </row>
     <row r="15" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>10</v>
@@ -5884,10 +5896,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="G15" s="62" t="s">
         <v>13</v>
@@ -5915,7 +5927,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -5941,7 +5953,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6120,12 +6132,12 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -6165,18 +6177,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
+      <c r="A2" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -6200,11 +6212,11 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="75"/>
       <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
@@ -6223,10 +6235,10 @@
         <v>15</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -6242,10 +6254,10 @@
     </row>
     <row r="6" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>13</v>
@@ -6254,10 +6266,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>13</v>
@@ -6273,10 +6285,10 @@
     </row>
     <row r="7" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>13</v>
@@ -6288,7 +6300,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="53"/>
@@ -6302,10 +6314,10 @@
     </row>
     <row r="8" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>13</v>
@@ -6317,7 +6329,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="56"/>
@@ -6343,7 +6355,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6369,7 +6381,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6443,12 +6455,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -6468,7 +6480,7 @@
   <dimension ref="A2:XFD36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6486,16 +6498,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16384" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="4" spans="1:16384" s="23" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -6543,7 +6555,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>13</v>
@@ -6552,7 +6564,7 @@
         <v>13</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:16384" x14ac:dyDescent="0.25">
@@ -6625,7 +6637,7 @@
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -39399,7 +39411,7 @@
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -39411,7 +39423,7 @@
     </row>
     <row r="12" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -39423,7 +39435,7 @@
     </row>
     <row r="13" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -39435,7 +39447,7 @@
     </row>
     <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -39447,7 +39459,7 @@
     </row>
     <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -39459,7 +39471,7 @@
     </row>
     <row r="16" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -39471,7 +39483,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -39687,7 +39699,7 @@
   <dimension ref="A2:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39704,16 +39716,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="A2" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -39761,7 +39773,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -39788,7 +39800,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>46</v>
@@ -39800,7 +39812,7 @@
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>10</v>
@@ -39815,7 +39827,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>46</v>
@@ -39838,7 +39850,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -39860,7 +39872,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -39872,7 +39884,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -39884,7 +39896,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -39896,7 +39908,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -39908,7 +39920,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -39920,7 +39932,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -39932,7 +39944,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -40135,16 +40147,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="A2" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -40192,7 +40204,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -40241,7 +40253,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -40263,32 +40275,32 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -40307,7 +40319,7 @@
   <dimension ref="A2:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40324,17 +40336,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -40382,7 +40394,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>13</v>
@@ -40403,7 +40415,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>19</v>
@@ -40429,7 +40441,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -40451,7 +40463,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -40463,7 +40475,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -40475,7 +40487,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -40487,7 +40499,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -40499,7 +40511,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -40511,7 +40523,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -40714,10 +40726,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A2:I33"/>
+  <dimension ref="A2:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40734,16 +40746,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -40791,7 +40803,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -40812,7 +40824,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>19</v>
@@ -40838,7 +40850,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -40860,7 +40872,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -40872,7 +40884,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -40884,7 +40896,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -40896,7 +40908,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -40919,7 +40931,9 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -41107,6 +41121,16 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -41124,7 +41148,7 @@
   <dimension ref="A2:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41141,16 +41165,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -41198,7 +41222,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -41245,7 +41269,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -41267,7 +41291,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -41279,7 +41303,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -41291,7 +41315,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -41303,7 +41327,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -41315,7 +41339,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -41327,7 +41351,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -41522,7 +41546,7 @@
   </sheetPr>
   <dimension ref="A2:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -41540,16 +41564,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="A2" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -41597,19 +41621,19 @@
         <v>19</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>10</v>
@@ -41638,7 +41662,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>10</v>
@@ -41653,19 +41677,19 @@
         <v>19</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>10</v>
@@ -41680,19 +41704,19 @@
         <v>19</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>78</v>
@@ -41707,7 +41731,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>13</v>
@@ -41719,7 +41743,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>78</v>
@@ -41734,7 +41758,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>13</v>
@@ -41744,10 +41768,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>13</v>
@@ -41759,7 +41783,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>13</v>
@@ -41784,7 +41808,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>13</v>
@@ -41866,7 +41890,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>13</v>
@@ -41888,7 +41912,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -41910,7 +41934,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -41922,7 +41946,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -41934,7 +41958,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -41946,7 +41970,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -41958,7 +41982,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -41970,7 +41994,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -41982,7 +42006,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -41994,7 +42018,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -42006,7 +42030,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -42018,7 +42042,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -42030,7 +42054,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -42042,7 +42066,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -42054,7 +42078,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -42181,7 +42205,7 @@
   <dimension ref="A2:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42198,16 +42222,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="A2" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -42255,7 +42279,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>13</v>
@@ -42269,7 +42293,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>78</v>
@@ -42284,7 +42308,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>13</v>
@@ -42298,7 +42322,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>78</v>
@@ -42313,7 +42337,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>13</v>
@@ -42328,7 +42352,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>78</v>
@@ -42343,7 +42367,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>13</v>
@@ -42358,7 +42382,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>16</v>
@@ -42373,7 +42397,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>13</v>
@@ -42391,7 +42415,7 @@
         <v>62</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>13</v>
@@ -42403,7 +42427,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>13</v>
@@ -42418,7 +42442,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>78</v>
@@ -42433,7 +42457,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>13</v>
@@ -42448,10 +42472,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>103</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>13</v>
@@ -42463,7 +42487,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>13</v>
@@ -42477,7 +42501,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>10</v>
@@ -42492,7 +42516,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>13</v>
@@ -42517,7 +42541,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -42541,7 +42565,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -42554,7 +42578,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -42567,7 +42591,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -42579,7 +42603,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -42591,7 +42615,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -42603,7 +42627,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -42615,7 +42639,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -42627,7 +42651,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -42639,7 +42663,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -42651,7 +42675,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -42663,7 +42687,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -42675,7 +42699,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -42687,7 +42711,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -42699,7 +42723,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>

--- a/data/Карта таблиц.xlsx
+++ b/data/Карта таблиц.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="846"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="846" firstSheet="3" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="basic_estimate" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,12 @@
     <sheet name="code_list" sheetId="16" r:id="rId14"/>
     <sheet name="report" sheetId="14" r:id="rId15"/>
     <sheet name="code" sheetId="15" r:id="rId16"/>
+    <sheet name="map" sheetId="17" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">basic_estimate!$A$4:$I$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="345">
   <si>
     <t>Поле</t>
   </si>
@@ -1097,6 +1097,30 @@
   <si>
     <t>Ссылка на ID в таблице notes</t>
   </si>
+  <si>
+    <t>CREATE TABLE `map` (</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>varchar(125)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRIMARY KEY (`id`),</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UNIQUE INDEX `zone_UNIQUE` (`zone` ASC) VISIBLE</t>
+  </si>
+  <si>
+    <t>Зона, захватка, зал и так далее</t>
+  </si>
+  <si>
+    <t>оси зоны</t>
+  </si>
+  <si>
+    <t>Список соотношения зон и осей: map</t>
+  </si>
 </sst>
 </file>
 
@@ -1821,7 +1845,7 @@
   </sheetPr>
   <dimension ref="A2:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -6158,7 +6182,7 @@
   <dimension ref="A2:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6460,6 +6484,309 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="H4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A2:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+    </row>
+    <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="74"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="39"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="39"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="39"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="str">
+        <f>"`"&amp;A5&amp;"` "&amp;B5&amp;" "&amp;E5&amp;" AUTO_INCREMENT,"</f>
+        <v>`id` int NOT NULL AUTO_INCREMENT,</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="39"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="str">
+        <f>"`"&amp;A6&amp;"` "&amp;B6&amp;" "&amp;E6&amp;","</f>
+        <v>`zone` varchar(64) NOT NULL,</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="39"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="str">
+        <f>"`"&amp;A7&amp;"` "&amp;B7&amp;" "&amp;E7&amp;","</f>
+        <v>`axes` varchar(125) NOT NULL,</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="39"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="39"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="39"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>201</v>
       </c>
     </row>
